--- a/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6.982724135412752</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.237183513294895</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2119319713331578</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04409542380018294</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000751687050671258</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.790008163799143</v>
+      </c>
+      <c r="N2">
+        <v>3.782855971883237</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.960850980557893</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.902216943991334</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1804733168425656</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03761692610535761</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007685625704049536</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.526275220706125</v>
+      </c>
+      <c r="N3">
+        <v>3.476805942702839</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.358120637128138</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.704829922381919</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1619111308799432</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03379963235943961</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000778997912031012</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.370766507864289</v>
+      </c>
+      <c r="N4">
+        <v>3.296143092230096</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.11763387769463</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.626103817868625</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.154502931587416</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.03227745309683172</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000783279197413614</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.308728116265556</v>
+      </c>
+      <c r="N5">
+        <v>3.224049324588975</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5.07798280256452</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.613124997440309</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1532813543278877</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03202653081623907</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000783992110090596</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.298499774214193</v>
+      </c>
+      <c r="N6">
+        <v>3.212162700112543</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5.354857875761979</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.703761715453936</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1618106297623001</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.033778976885106</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000779055521761552</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.369924780790257</v>
+      </c>
+      <c r="N7">
+        <v>3.295164981989046</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6.624544029488447</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.119722591650145</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2009066375194948</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04182374465660033</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007574971739359171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.697553695126501</v>
+      </c>
+      <c r="N8">
+        <v>3.675630486885012</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>9.371496042898116</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.022261594921986</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2854420024646203</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.05926536588710363</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007152277612453061</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2.406990404989415</v>
+      </c>
+      <c r="N9">
+        <v>4.495866984482177</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11.65969889746066</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3.777639518422802</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3558487290463859</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.07381849741036461</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006831061509186424</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.998685151910323</v>
+      </c>
+      <c r="N10">
+        <v>5.174192827161335</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12.79717502844653</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4.154560060848212</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3908509297789919</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.08105661040533363</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006679043765658757</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3.293085958294455</v>
+      </c>
+      <c r="N11">
+        <v>5.509306195244903</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13.24651369152207</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.303737011871249</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.4046787484635246</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08391601881995214</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006620185871807368</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3.4094335806885</v>
+      </c>
+      <c r="N12">
+        <v>5.641268046491575</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>13.14881773617901</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.271288749174289</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4016722360817369</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.08329432604242371</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006632928445773856</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3.384134655903623</v>
+      </c>
+      <c r="N13">
+        <v>5.612597451059628</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>12.83373590928295</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4.166691892706012</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3919760242671089</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.08128926995394892</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006674230560388612</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3.302551629778549</v>
+      </c>
+      <c r="N14">
+        <v>5.52005246918003</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>12.64333285792043</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4.103523005442185</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3861167539877499</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.08007761912972811</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006699344890955453</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3.25325803483787</v>
+      </c>
+      <c r="N15">
+        <v>5.464070247667905</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>11.58766925460679</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.753804638498025</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.353632336695938</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.07336019543613403</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006840843306159528</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.980048549991977</v>
+      </c>
+      <c r="N16">
+        <v>5.15292274550211</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10.96762739960093</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3.548788127005537</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3345536455907165</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.06941544019736412</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000692587042112451</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.819651404410891</v>
+      </c>
+      <c r="N17">
+        <v>4.969594135602392</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10.61972403752281</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3.433874980187284</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3238488697418376</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.06720241400963545</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006974254884142676</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.729676070267217</v>
+      </c>
+      <c r="N18">
+        <v>4.866551523148871</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>10.50331213957395</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3.395442837325902</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3202669695138098</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0664619829234141</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006990558579958475</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2.699573086565053</v>
+      </c>
+      <c r="N19">
+        <v>4.832044814968782</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>11.03269985968188</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3.570291213641724</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3365559001674114</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.06982940030144036</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006916875754901809</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2.836482373612256</v>
+      </c>
+      <c r="N20">
+        <v>4.988853454953073</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>12.92573136035139</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>4.197223075952024</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3948070316955636</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08187469407142345</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006662138616337985</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3.326370236370849</v>
+      </c>
+      <c r="N21">
+        <v>5.547085464065901</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>14.27511290817404</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4.645855190235466</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.4363346475487475</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.09046103191460375</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006487767829485521</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3.675877758106225</v>
+      </c>
+      <c r="N22">
+        <v>5.942409040060284</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>13.54255722948926</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4.402111535624044</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.4137894021783524</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.08579987165071046</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006581752435404428</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3.486104023869387</v>
+      </c>
+      <c r="N23">
+        <v>5.728075771036913</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>11.00325424426717</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3.56056058356188</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3356498692680958</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.06964208010880313</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.00069209437657294</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2.828866203992845</v>
+      </c>
+      <c r="N24">
+        <v>4.980139066739582</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>8.590972959297119</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.765384035727777</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.261425256189284</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.05430535531367298</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007267554659308636</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>2.205316451781698</v>
+      </c>
+      <c r="N25">
+        <v>4.263361426075988</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.982724135412752</v>
+        <v>2.587529616333654</v>
       </c>
       <c r="C2">
-        <v>2.237183513294895</v>
+        <v>0.430117976437316</v>
       </c>
       <c r="D2">
-        <v>0.2119319713331578</v>
+        <v>0.2282799399412596</v>
       </c>
       <c r="E2">
-        <v>0.04409542380018294</v>
+        <v>0.05724318137242435</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000751687050671258</v>
+        <v>0.4118613841849594</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3480750510564405</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3203340834086283</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05551842489065351</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2585943297863764</v>
       </c>
       <c r="M2">
-        <v>1.790008163799143</v>
+        <v>0.4817121738356107</v>
       </c>
       <c r="N2">
-        <v>3.782855971883237</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.549418914274611</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.960850980557893</v>
+        <v>2.251686300620463</v>
       </c>
       <c r="C3">
-        <v>1.902216943991334</v>
+        <v>0.3882120437065453</v>
       </c>
       <c r="D3">
-        <v>0.1804733168425656</v>
+        <v>0.2201823562567284</v>
       </c>
       <c r="E3">
-        <v>0.03761692610535761</v>
+        <v>0.05923658281257715</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007685625704049536</v>
+        <v>0.4045930699694722</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3518386469943522</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3357797172837067</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05361653634432884</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2368565666559874</v>
       </c>
       <c r="M3">
-        <v>1.526275220706125</v>
+        <v>0.4212174643616962</v>
       </c>
       <c r="N3">
-        <v>3.476805942702839</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.541458843481976</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.358120637128138</v>
+        <v>2.045626123216891</v>
       </c>
       <c r="C4">
-        <v>1.704829922381919</v>
+        <v>0.362471188113318</v>
       </c>
       <c r="D4">
-        <v>0.1619111308799432</v>
+        <v>0.2155377507537395</v>
       </c>
       <c r="E4">
-        <v>0.03379963235943961</v>
+        <v>0.06053826095116399</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000778997912031012</v>
+        <v>0.4013117361382257</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3548662508683265</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3461993434102979</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05245628001049951</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2237090615405251</v>
       </c>
       <c r="M4">
-        <v>1.370766507864289</v>
+        <v>0.3841678492778229</v>
       </c>
       <c r="N4">
-        <v>3.296143092230096</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.540565333639748</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.11763387769463</v>
+        <v>1.961668499609971</v>
       </c>
       <c r="C5">
-        <v>1.626103817868625</v>
+        <v>0.3519763687486943</v>
       </c>
       <c r="D5">
-        <v>0.154502931587416</v>
+        <v>0.213724229603045</v>
       </c>
       <c r="E5">
-        <v>0.03227745309683172</v>
+        <v>0.06108794524726591</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000783279197413614</v>
+        <v>0.4002576287179167</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3562740139086245</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3506726831223599</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05198524017669826</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2183984710296798</v>
       </c>
       <c r="M5">
-        <v>1.308728116265556</v>
+        <v>0.3690886857632805</v>
       </c>
       <c r="N5">
-        <v>3.224049324588975</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.541162741226856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.07798280256452</v>
+        <v>1.947727551849709</v>
       </c>
       <c r="C6">
-        <v>1.613124997440309</v>
+        <v>0.3502333252610299</v>
       </c>
       <c r="D6">
-        <v>0.1532813543278877</v>
+        <v>0.21342779037154</v>
       </c>
       <c r="E6">
-        <v>0.03202653081623907</v>
+        <v>0.06118037328219028</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000783992110090596</v>
+        <v>0.4000992936759644</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3565181035216298</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3514289737578107</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05190712834760802</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2175194114615451</v>
       </c>
       <c r="M6">
-        <v>1.298499774214193</v>
+        <v>0.3665858042437193</v>
       </c>
       <c r="N6">
-        <v>3.212162700112543</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.541318799910897</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.354857875761979</v>
+        <v>2.044493816828435</v>
       </c>
       <c r="C7">
-        <v>1.703761715453936</v>
+        <v>0.3623296756929051</v>
       </c>
       <c r="D7">
-        <v>0.1618106297623001</v>
+        <v>0.2155129763407473</v>
       </c>
       <c r="E7">
-        <v>0.033778976885106</v>
+        <v>0.06054559667678738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000779055521761552</v>
+        <v>0.4012963920183381</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3548845400058909</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3462587627055491</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05244992036428897</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.22363725417609</v>
       </c>
       <c r="M7">
-        <v>1.369924780790257</v>
+        <v>0.3839644162862257</v>
       </c>
       <c r="N7">
-        <v>3.295164981989046</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.540569552436097</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.624544029488447</v>
+        <v>2.471684953900194</v>
       </c>
       <c r="C8">
-        <v>2.119722591650145</v>
+        <v>0.4156693512772165</v>
       </c>
       <c r="D8">
-        <v>0.2009066375194948</v>
+        <v>0.2254180275066346</v>
       </c>
       <c r="E8">
-        <v>0.04182374465660033</v>
+        <v>0.05791418888804589</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007574971739359171</v>
+        <v>0.4091014156824286</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3492201313415251</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3254605007679672</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05486102232574552</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2510558291387781</v>
       </c>
       <c r="M8">
-        <v>1.697553695126501</v>
+        <v>0.4608309608983774</v>
       </c>
       <c r="N8">
-        <v>3.675630486885012</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.545818929725243</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.371496042898116</v>
+        <v>3.311785329339045</v>
       </c>
       <c r="C9">
-        <v>3.022261594921986</v>
+        <v>0.5203167019256512</v>
       </c>
       <c r="D9">
-        <v>0.2854420024646203</v>
+        <v>0.2475882970311432</v>
       </c>
       <c r="E9">
-        <v>0.05926536588710363</v>
+        <v>0.05338485344293886</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007152277612453061</v>
+        <v>0.4344480869405629</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3440958421611811</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.292483774500937</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05965468223827486</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.306556191930099</v>
       </c>
       <c r="M9">
-        <v>2.406990404989415</v>
+        <v>0.6125576542357507</v>
       </c>
       <c r="N9">
-        <v>4.495866984482177</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.589839066611546</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.65969889746066</v>
+        <v>3.932304515082251</v>
       </c>
       <c r="C10">
-        <v>3.777639518422802</v>
+        <v>0.5974351879047788</v>
       </c>
       <c r="D10">
-        <v>0.3558487290463859</v>
+        <v>0.2657716009280335</v>
       </c>
       <c r="E10">
-        <v>0.07381849741036461</v>
+        <v>0.05046215077738836</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006831061509186424</v>
+        <v>0.4601733151530425</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3444151749686739</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.273575188113611</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06322581533030203</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3486130198675568</v>
       </c>
       <c r="M10">
-        <v>2.998685151910323</v>
+        <v>0.7250077524578131</v>
       </c>
       <c r="N10">
-        <v>5.174192827161335</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.645737163075069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.79717502844653</v>
+        <v>4.215758698081515</v>
       </c>
       <c r="C11">
-        <v>4.154560060848212</v>
+        <v>0.6326192235861186</v>
       </c>
       <c r="D11">
-        <v>0.3908509297789919</v>
+        <v>0.274507269145019</v>
       </c>
       <c r="E11">
-        <v>0.08105661040533363</v>
+        <v>0.04922525072946904</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006679043765658757</v>
+        <v>0.473651770051319</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3455509576113371</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2662605325284098</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06486340269317736</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.368077609570264</v>
       </c>
       <c r="M11">
-        <v>3.293085958294455</v>
+        <v>0.776466165516247</v>
       </c>
       <c r="N11">
-        <v>5.509306195244903</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.676993086528853</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.24651369152207</v>
+        <v>4.323303847842624</v>
       </c>
       <c r="C12">
-        <v>4.303737011871249</v>
+        <v>0.645961614133256</v>
       </c>
       <c r="D12">
-        <v>0.4046787484635246</v>
+        <v>0.2778865806147195</v>
       </c>
       <c r="E12">
-        <v>0.08391601881995214</v>
+        <v>0.04877062040916424</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006620185871807368</v>
+        <v>0.4790319578758897</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3461327968678773</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2636876234282042</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.06548559447758961</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3755009334551147</v>
       </c>
       <c r="M12">
-        <v>3.4094335806885</v>
+        <v>0.796003765233209</v>
       </c>
       <c r="N12">
-        <v>5.641268046491575</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.689730664483392</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.14881773617901</v>
+        <v>4.30013222351306</v>
       </c>
       <c r="C13">
-        <v>4.271288749174289</v>
+        <v>0.6430871772746514</v>
       </c>
       <c r="D13">
-        <v>0.4016722360817369</v>
+        <v>0.2771555379224253</v>
       </c>
       <c r="E13">
-        <v>0.08329432604242371</v>
+        <v>0.04886791415878555</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006632928445773856</v>
+        <v>0.4778606074213627</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.346000583276151</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2642327854393898</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.06535149886174807</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3738997747242792</v>
       </c>
       <c r="M13">
-        <v>3.384134655903623</v>
+        <v>0.7917935785390711</v>
       </c>
       <c r="N13">
-        <v>5.612597451059628</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.686946237148078</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.83373590928295</v>
+        <v>4.224602121469673</v>
       </c>
       <c r="C14">
-        <v>4.166691892706012</v>
+        <v>0.6337165046351743</v>
       </c>
       <c r="D14">
-        <v>0.3919760242671089</v>
+        <v>0.2747838307624875</v>
       </c>
       <c r="E14">
-        <v>0.08128926995394892</v>
+        <v>0.04918756973452609</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006674230560388612</v>
+        <v>0.4740887416483446</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3455957290544518</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2660448384867315</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.06491454806294072</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3686872506750944</v>
       </c>
       <c r="M14">
-        <v>3.302551629778549</v>
+        <v>0.7780724591804145</v>
       </c>
       <c r="N14">
-        <v>5.52005246918003</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.678022564061422</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.64333285792043</v>
+        <v>4.178365914836149</v>
       </c>
       <c r="C15">
-        <v>4.103523005442185</v>
+        <v>0.6279792976527006</v>
       </c>
       <c r="D15">
-        <v>0.3861167539877499</v>
+        <v>0.2733405186956048</v>
       </c>
       <c r="E15">
-        <v>0.08007761912972811</v>
+        <v>0.04938517286930466</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006699344890955453</v>
+        <v>0.4718149756574661</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3453677930557149</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2671807954702921</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.06464717912017548</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.365501411193847</v>
       </c>
       <c r="M15">
-        <v>3.25325803483787</v>
+        <v>0.7696748105827496</v>
       </c>
       <c r="N15">
-        <v>5.464070247667905</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.672675941579968</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.58766925460679</v>
+        <v>3.913806977748607</v>
       </c>
       <c r="C16">
-        <v>3.753804638498025</v>
+        <v>0.5951382434720642</v>
       </c>
       <c r="D16">
-        <v>0.353632336695938</v>
+        <v>0.2652104259519916</v>
       </c>
       <c r="E16">
-        <v>0.07336019543613403</v>
+        <v>0.05054488598624118</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006840843306159528</v>
+        <v>0.4593299489356895</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3443616615240472</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2740801163698379</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.0631190742357397</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.347348049174073</v>
       </c>
       <c r="M16">
-        <v>2.980048549991977</v>
+        <v>0.7216515886694097</v>
       </c>
       <c r="N16">
-        <v>5.15292274550211</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.64381712047728</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.96762739960093</v>
+        <v>3.751836156539468</v>
       </c>
       <c r="C17">
-        <v>3.548788127005537</v>
+        <v>0.575020459759287</v>
       </c>
       <c r="D17">
-        <v>0.3345536455907165</v>
+        <v>0.2603448823387424</v>
       </c>
       <c r="E17">
-        <v>0.06941544019736412</v>
+        <v>0.05128036337780895</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000692587042112451</v>
+        <v>0.4521400050185775</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3440045476899058</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2786504836357935</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06218510995771709</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3362999794437371</v>
       </c>
       <c r="M17">
-        <v>2.819651404410891</v>
+        <v>0.6922741009743305</v>
       </c>
       <c r="N17">
-        <v>4.969594135602392</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.627649656763111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.61972403752281</v>
+        <v>3.658783152866079</v>
       </c>
       <c r="C18">
-        <v>3.433874980187284</v>
+        <v>0.5634586122916119</v>
       </c>
       <c r="D18">
-        <v>0.3238488697418376</v>
+        <v>0.2575897316704499</v>
       </c>
       <c r="E18">
-        <v>0.06720241400963545</v>
+        <v>0.0517120839413403</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006974254884142676</v>
+        <v>0.4481703684751324</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3438917828371757</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.281399611962037</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06164913511590697</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3299764412803938</v>
       </c>
       <c r="M18">
-        <v>2.729676070267217</v>
+        <v>0.6754050965371832</v>
       </c>
       <c r="N18">
-        <v>4.866551523148871</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.618895016998863</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.50331213957395</v>
+        <v>3.627294501438485</v>
       </c>
       <c r="C19">
-        <v>3.395442837325902</v>
+        <v>0.5595454554491823</v>
       </c>
       <c r="D19">
-        <v>0.3202669695138098</v>
+        <v>0.2566642010748552</v>
       </c>
       <c r="E19">
-        <v>0.0664619829234141</v>
+        <v>0.05185973741071948</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006990558579958475</v>
+        <v>0.4468541881519883</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3438692400770691</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2823507434295962</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06146786655214598</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3278405909841098</v>
       </c>
       <c r="M19">
-        <v>2.699573086565053</v>
+        <v>0.669698152361839</v>
       </c>
       <c r="N19">
-        <v>4.832044814968782</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.616022489987074</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.03269985968188</v>
+        <v>3.769066749749754</v>
       </c>
       <c r="C20">
-        <v>3.570291213641724</v>
+        <v>0.5771610329365444</v>
       </c>
       <c r="D20">
-        <v>0.3365559001674114</v>
+        <v>0.2608583057344021</v>
       </c>
       <c r="E20">
-        <v>0.06982940030144036</v>
+        <v>0.05120116775846828</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006916875754901809</v>
+        <v>0.4528880779635784</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3440329100724995</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2781514181362859</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0622844047673432</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3374728222607359</v>
       </c>
       <c r="M20">
-        <v>2.836482373612256</v>
+        <v>0.6953984177217549</v>
       </c>
       <c r="N20">
-        <v>4.988853454953073</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.629313914662561</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.92573136035139</v>
+        <v>4.246781202410773</v>
       </c>
       <c r="C21">
-        <v>4.197223075952024</v>
+        <v>0.6364683483341196</v>
       </c>
       <c r="D21">
-        <v>0.3948070316955636</v>
+        <v>0.2754784854428749</v>
       </c>
       <c r="E21">
-        <v>0.08187469407142345</v>
+        <v>0.04909330220057129</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006662138616337985</v>
+        <v>0.4751889611919182</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3457104488324632</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2655071491357504</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.06504283320614235</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3702168314931953</v>
       </c>
       <c r="M21">
-        <v>3.326370236370849</v>
+        <v>0.7821012251576533</v>
       </c>
       <c r="N21">
-        <v>5.547085464065901</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.680618663501889</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.27511290817404</v>
+        <v>4.560222757658153</v>
       </c>
       <c r="C22">
-        <v>4.645855190235466</v>
+        <v>0.675341838194953</v>
       </c>
       <c r="D22">
-        <v>0.4363346475487475</v>
+        <v>0.2854515815369609</v>
       </c>
       <c r="E22">
-        <v>0.09046103191460375</v>
+        <v>0.04779609613756897</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006487767829485521</v>
+        <v>0.4913844568980608</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3476960961323954</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2583977461593499</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.06685781153461789</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3919253946635024</v>
       </c>
       <c r="M22">
-        <v>3.675877758106225</v>
+        <v>0.8390701988196057</v>
       </c>
       <c r="N22">
-        <v>5.942409040060284</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.719437548936043</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.54255722948926</v>
+        <v>4.392807443172899</v>
       </c>
       <c r="C23">
-        <v>4.402111535624044</v>
+        <v>0.6545825205332108</v>
       </c>
       <c r="D23">
-        <v>0.4137894021783524</v>
+        <v>0.2800889133096121</v>
       </c>
       <c r="E23">
-        <v>0.08579987165071046</v>
+        <v>0.0484809321226658</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006581752435404428</v>
+        <v>0.4825850672235106</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.346551699373876</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2620823862658312</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.06588793953932992</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3803092712301321</v>
       </c>
       <c r="M23">
-        <v>3.486104023869387</v>
+        <v>0.8086343117538135</v>
       </c>
       <c r="N23">
-        <v>5.728075771036913</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.698213086411016</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.00325424426717</v>
+        <v>3.76127659526054</v>
       </c>
       <c r="C24">
-        <v>3.56056058356188</v>
+        <v>0.5761932672408534</v>
       </c>
       <c r="D24">
-        <v>0.3356498692680958</v>
+        <v>0.2606260561810103</v>
       </c>
       <c r="E24">
-        <v>0.06964208010880313</v>
+        <v>0.05123694445626192</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00069209437657294</v>
+        <v>0.4525493650493075</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3440197998795043</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2783766678986375</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06223951056569277</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3369424927082889</v>
       </c>
       <c r="M24">
-        <v>2.828866203992845</v>
+        <v>0.6939858508248378</v>
       </c>
       <c r="N24">
-        <v>4.980139066739582</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.62855982566569</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.590972959297119</v>
+        <v>3.084078711516554</v>
       </c>
       <c r="C25">
-        <v>2.765384035727777</v>
+        <v>0.4919814893110868</v>
       </c>
       <c r="D25">
-        <v>0.261425256189284</v>
+        <v>0.2412746565684074</v>
       </c>
       <c r="E25">
-        <v>0.05430535531367298</v>
+        <v>0.05454058073670964</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007267554659308636</v>
+        <v>0.4264185374767351</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3447981311610846</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3005132400671329</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05834994553440254</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2913341129801097</v>
       </c>
       <c r="M25">
-        <v>2.205316451781698</v>
+        <v>0.5713686090139376</v>
       </c>
       <c r="N25">
-        <v>4.263361426075988</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.574021892409149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.587529616333654</v>
+        <v>1.214864207225276</v>
       </c>
       <c r="C2">
-        <v>0.430117976437316</v>
+        <v>0.2001994454756755</v>
       </c>
       <c r="D2">
-        <v>0.2282799399412596</v>
+        <v>0.5023494010699778</v>
       </c>
       <c r="E2">
-        <v>0.05724318137242435</v>
+        <v>0.1702098314471225</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4118613841849594</v>
+        <v>0.8783912334407518</v>
       </c>
       <c r="H2">
-        <v>0.3480750510564405</v>
+        <v>0.9460361915521531</v>
       </c>
       <c r="I2">
-        <v>0.3203340834086283</v>
+        <v>0.9225269522909834</v>
       </c>
       <c r="J2">
-        <v>0.05551842489065351</v>
+        <v>0.07982560351849344</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2585943297863764</v>
+        <v>0.4054404887654783</v>
       </c>
       <c r="M2">
-        <v>0.4817121738356107</v>
+        <v>0.3290411884122832</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.549418914274611</v>
+        <v>3.680294265256407</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.251686300620463</v>
+        <v>1.110751157864399</v>
       </c>
       <c r="C3">
-        <v>0.3882120437065453</v>
+        <v>0.1861287943088143</v>
       </c>
       <c r="D3">
-        <v>0.2201823562567284</v>
+        <v>0.5035493356212584</v>
       </c>
       <c r="E3">
-        <v>0.05923658281257715</v>
+        <v>0.1716971708228554</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4045930699694722</v>
+        <v>0.8858018408170025</v>
       </c>
       <c r="H3">
-        <v>0.3518386469943522</v>
+        <v>0.9542607946025257</v>
       </c>
       <c r="I3">
-        <v>0.3357797172837067</v>
+        <v>0.9351310122851899</v>
       </c>
       <c r="J3">
-        <v>0.05361653634432884</v>
+        <v>0.07923726039927104</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2368565666559874</v>
+        <v>0.4012443182651708</v>
       </c>
       <c r="M3">
-        <v>0.4212174643616962</v>
+        <v>0.3113875287910304</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.541458843481976</v>
+        <v>3.712910337738762</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.045626123216891</v>
+        <v>1.046814342849757</v>
       </c>
       <c r="C4">
-        <v>0.362471188113318</v>
+        <v>0.1774485326391755</v>
       </c>
       <c r="D4">
-        <v>0.2155377507537395</v>
+        <v>0.504503896581511</v>
       </c>
       <c r="E4">
-        <v>0.06053826095116399</v>
+        <v>0.1726667698276714</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4013117361382257</v>
+        <v>0.8909588459023752</v>
       </c>
       <c r="H4">
-        <v>0.3548662508683265</v>
+        <v>0.9597548147556765</v>
       </c>
       <c r="I4">
-        <v>0.3461993434102979</v>
+        <v>0.9433980698569684</v>
       </c>
       <c r="J4">
-        <v>0.05245628001049951</v>
+        <v>0.07887971963609175</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2237090615405251</v>
+        <v>0.3988052554240227</v>
       </c>
       <c r="M4">
-        <v>0.3841678492778229</v>
+        <v>0.3005991828378143</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.540565333639748</v>
+        <v>3.735141989268811</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961668499609971</v>
+        <v>1.020758700332749</v>
       </c>
       <c r="C5">
-        <v>0.3519763687486943</v>
+        <v>0.1739012395003101</v>
       </c>
       <c r="D5">
-        <v>0.213724229603045</v>
+        <v>0.5049477411495502</v>
       </c>
       <c r="E5">
-        <v>0.06108794524726591</v>
+        <v>0.1730760808267489</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4002576287179167</v>
+        <v>0.8932128530664301</v>
       </c>
       <c r="H5">
-        <v>0.3562740139086245</v>
+        <v>0.9621053889245132</v>
       </c>
       <c r="I5">
-        <v>0.3506726831223599</v>
+        <v>0.9468997088524347</v>
       </c>
       <c r="J5">
-        <v>0.05198524017669826</v>
+        <v>0.07873496897397914</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2183984710296798</v>
+        <v>0.397846014210117</v>
       </c>
       <c r="M5">
-        <v>0.3690886857632805</v>
+        <v>0.2962160285197868</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.541162741226856</v>
+        <v>3.744755947444588</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947727551849709</v>
+        <v>1.01643218399056</v>
       </c>
       <c r="C6">
-        <v>0.3502333252610299</v>
+        <v>0.1733116166213335</v>
       </c>
       <c r="D6">
-        <v>0.21342779037154</v>
+        <v>0.5050247567479431</v>
       </c>
       <c r="E6">
-        <v>0.06118037328219028</v>
+        <v>0.173144904259674</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4000992936759644</v>
+        <v>0.8935963356291268</v>
       </c>
       <c r="H6">
-        <v>0.3565181035216298</v>
+        <v>0.9625024487999951</v>
       </c>
       <c r="I6">
-        <v>0.3514289737578107</v>
+        <v>0.9474891693228553</v>
       </c>
       <c r="J6">
-        <v>0.05190712834760802</v>
+        <v>0.07871099117103952</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2175194114615451</v>
+        <v>0.3976888328266739</v>
       </c>
       <c r="M6">
-        <v>0.3665858042437193</v>
+        <v>0.2954890154736489</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.541318799910897</v>
+        <v>3.746385816678355</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.044493816828435</v>
+        <v>1.046462948356293</v>
       </c>
       <c r="C7">
-        <v>0.3623296756929051</v>
+        <v>0.1774007328256744</v>
       </c>
       <c r="D7">
-        <v>0.2155129763407473</v>
+        <v>0.5045096602103172</v>
       </c>
       <c r="E7">
-        <v>0.06054559667678738</v>
+        <v>0.1726722324543957</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4012963920183381</v>
+        <v>0.8909886269757408</v>
       </c>
       <c r="H7">
-        <v>0.3548845400058909</v>
+        <v>0.9597860630219657</v>
       </c>
       <c r="I7">
-        <v>0.3462587627055491</v>
+        <v>0.9434447567726139</v>
       </c>
       <c r="J7">
-        <v>0.05244992036428897</v>
+        <v>0.07887776360627186</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.22363725417609</v>
+        <v>0.3987921780819761</v>
       </c>
       <c r="M7">
-        <v>0.3839644162862257</v>
+        <v>0.3005400162488527</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.540569552436097</v>
+        <v>3.7352694020108</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.471684953900194</v>
+        <v>1.17896940495848</v>
       </c>
       <c r="C8">
-        <v>0.4156693512772165</v>
+        <v>0.1953565032417544</v>
       </c>
       <c r="D8">
-        <v>0.2254180275066346</v>
+        <v>0.5027179860282303</v>
       </c>
       <c r="E8">
-        <v>0.05791418888804589</v>
+        <v>0.1707109779148164</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4091014156824286</v>
+        <v>0.8808203872069811</v>
       </c>
       <c r="H8">
-        <v>0.3492201313415251</v>
+        <v>0.9487798950606177</v>
       </c>
       <c r="I8">
-        <v>0.3254605007679672</v>
+        <v>0.9267631916843193</v>
       </c>
       <c r="J8">
-        <v>0.05486102232574552</v>
+        <v>0.07962198491317451</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2510558291387781</v>
+        <v>0.4039652164130558</v>
       </c>
       <c r="M8">
-        <v>0.4608309608983774</v>
+        <v>0.3229438051350613</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.545818929725243</v>
+        <v>3.691082496955474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.311785329339045</v>
+        <v>1.438657109959081</v>
       </c>
       <c r="C9">
-        <v>0.5203167019256512</v>
+        <v>0.230234508342221</v>
       </c>
       <c r="D9">
-        <v>0.2475882970311432</v>
+        <v>0.5009291916411343</v>
       </c>
       <c r="E9">
-        <v>0.05338485344293886</v>
+        <v>0.1673113817869192</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4344480869405629</v>
+        <v>0.8657012766164343</v>
       </c>
       <c r="H9">
-        <v>0.3440958421611811</v>
+        <v>0.9307183371165308</v>
       </c>
       <c r="I9">
-        <v>0.292483774500937</v>
+        <v>0.8982430953031049</v>
       </c>
       <c r="J9">
-        <v>0.05965468223827486</v>
+        <v>0.08111005888186895</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.306556191930099</v>
+        <v>0.4151942069556895</v>
       </c>
       <c r="M9">
-        <v>0.6125576542357507</v>
+        <v>0.3672701315979126</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.589839066611546</v>
+        <v>3.621937643179251</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.932304515082251</v>
+        <v>1.629279268799053</v>
       </c>
       <c r="C10">
-        <v>0.5974351879047788</v>
+        <v>0.2556462687513203</v>
       </c>
       <c r="D10">
-        <v>0.2657716009280335</v>
+        <v>0.5006622773241389</v>
       </c>
       <c r="E10">
-        <v>0.05046215077738836</v>
+        <v>0.1650846650083402</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4601733151530425</v>
+        <v>0.8575405022835128</v>
       </c>
       <c r="H10">
-        <v>0.3444151749686739</v>
+        <v>0.9195926168896733</v>
       </c>
       <c r="I10">
-        <v>0.273575188113611</v>
+        <v>0.879847576787121</v>
       </c>
       <c r="J10">
-        <v>0.06322581533030203</v>
+        <v>0.08221995609919119</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3486130198675568</v>
+        <v>0.4240991817468966</v>
       </c>
       <c r="M10">
-        <v>0.7250077524578131</v>
+        <v>0.400062413039187</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.645737163075069</v>
+        <v>3.581821309816405</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.215758698081515</v>
+        <v>1.715946749252794</v>
       </c>
       <c r="C11">
-        <v>0.6326192235861186</v>
+        <v>0.2671585253259536</v>
       </c>
       <c r="D11">
-        <v>0.274507269145019</v>
+        <v>0.5007674347790072</v>
       </c>
       <c r="E11">
-        <v>0.04922525072946904</v>
+        <v>0.1641302592984175</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.473651770051319</v>
+        <v>0.8544697524940119</v>
       </c>
       <c r="H11">
-        <v>0.3455509576113371</v>
+        <v>0.9149962620795122</v>
       </c>
       <c r="I11">
-        <v>0.2662605325284098</v>
+        <v>0.8720349732240464</v>
       </c>
       <c r="J11">
-        <v>0.06486340269317736</v>
+        <v>0.0827283106323442</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.368077609570264</v>
+        <v>0.4282912885865073</v>
       </c>
       <c r="M11">
-        <v>0.776466165516247</v>
+        <v>0.4150268424488601</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.676993086528853</v>
+        <v>3.565894202070979</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.323303847842624</v>
+        <v>1.748757019383845</v>
       </c>
       <c r="C12">
-        <v>0.645961614133256</v>
+        <v>0.2715108466990728</v>
       </c>
       <c r="D12">
-        <v>0.2778865806147195</v>
+        <v>0.500839758929331</v>
       </c>
       <c r="E12">
-        <v>0.04877062040916424</v>
+        <v>0.1637772504287458</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4790319578758897</v>
+        <v>0.8533993451251973</v>
       </c>
       <c r="H12">
-        <v>0.3461327968678773</v>
+        <v>0.9133225389350486</v>
       </c>
       <c r="I12">
-        <v>0.2636876234282042</v>
+        <v>0.8691564997915151</v>
       </c>
       <c r="J12">
-        <v>0.06548559447758961</v>
+        <v>0.08292129152484407</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3755009334551147</v>
+        <v>0.4298989052470716</v>
       </c>
       <c r="M12">
-        <v>0.796003765233209</v>
+        <v>0.4206999550307202</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.689730664483392</v>
+        <v>3.560197145911985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.30013222351306</v>
+        <v>1.741691164705173</v>
       </c>
       <c r="C13">
-        <v>0.6430871772746514</v>
+        <v>0.2705738172769543</v>
       </c>
       <c r="D13">
-        <v>0.2771555379224253</v>
+        <v>0.5008227382838442</v>
       </c>
       <c r="E13">
-        <v>0.04886791415878555</v>
+        <v>0.1638529036626393</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4778606074213627</v>
+        <v>0.8536257637148594</v>
       </c>
       <c r="H13">
-        <v>0.346000583276151</v>
+        <v>0.9136800337844591</v>
       </c>
       <c r="I13">
-        <v>0.2642327854393898</v>
+        <v>0.8697728714778918</v>
       </c>
       <c r="J13">
-        <v>0.06535149886174807</v>
+        <v>0.08287970867614192</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3738997747242792</v>
+        <v>0.4295517820770698</v>
       </c>
       <c r="M13">
-        <v>0.7917935785390711</v>
+        <v>0.4194778694253856</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.686946237148078</v>
+        <v>3.561409240919403</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.224602121469673</v>
+        <v>1.718646258137824</v>
       </c>
       <c r="C14">
-        <v>0.6337165046351743</v>
+        <v>0.2675167376315812</v>
       </c>
       <c r="D14">
-        <v>0.2747838307624875</v>
+        <v>0.5007727339642969</v>
       </c>
       <c r="E14">
-        <v>0.04918756973452609</v>
+        <v>0.1641010486999912</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4740887416483446</v>
+        <v>0.8543798363472348</v>
       </c>
       <c r="H14">
-        <v>0.3455957290544518</v>
+        <v>0.9148572248763855</v>
       </c>
       <c r="I14">
-        <v>0.2660448384867315</v>
+        <v>0.8717965558265632</v>
       </c>
       <c r="J14">
-        <v>0.06491454806294072</v>
+        <v>0.08274417781390042</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3686872506750944</v>
+        <v>0.4284231450396589</v>
       </c>
       <c r="M14">
-        <v>0.7780724591804145</v>
+        <v>0.4154934464577806</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.678022564061422</v>
+        <v>3.565418802431111</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.178365914836149</v>
+        <v>1.704529379393364</v>
       </c>
       <c r="C15">
-        <v>0.6279792976527006</v>
+        <v>0.2656432530037307</v>
       </c>
       <c r="D15">
-        <v>0.2733405186956048</v>
+        <v>0.5007463354385351</v>
       </c>
       <c r="E15">
-        <v>0.04938517286930466</v>
+        <v>0.164254138718098</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4718149756574661</v>
+        <v>0.8548537678187103</v>
       </c>
       <c r="H15">
-        <v>0.3453677930557149</v>
+        <v>0.9155869893294977</v>
       </c>
       <c r="I15">
-        <v>0.2671807954702921</v>
+        <v>0.8730465407644701</v>
       </c>
       <c r="J15">
-        <v>0.06464717912017548</v>
+        <v>0.08266122294411815</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.365501411193847</v>
+        <v>0.4277344429480507</v>
       </c>
       <c r="M15">
-        <v>0.7696748105827496</v>
+        <v>0.4130536962352167</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.672675941579968</v>
+        <v>3.567918305132963</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.913806977748607</v>
+        <v>1.623614218632895</v>
       </c>
       <c r="C16">
-        <v>0.5951382434720642</v>
+        <v>0.2548929336419121</v>
       </c>
       <c r="D16">
-        <v>0.2652104259519916</v>
+        <v>0.5006599576704787</v>
       </c>
       <c r="E16">
-        <v>0.05054488598624118</v>
+        <v>0.1651482144229144</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4593299489356895</v>
+        <v>0.8577541073572093</v>
       </c>
       <c r="H16">
-        <v>0.3443616615240472</v>
+        <v>0.9199023505829018</v>
       </c>
       <c r="I16">
-        <v>0.2740801163698379</v>
+        <v>0.8803693371315546</v>
       </c>
       <c r="J16">
-        <v>0.0631190742357397</v>
+        <v>0.08218680186442739</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.347348049174073</v>
+        <v>0.4238280462956823</v>
       </c>
       <c r="M16">
-        <v>0.7216515886694097</v>
+        <v>0.3990853685646272</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.64381712047728</v>
+        <v>3.582908933565307</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.751836156539468</v>
+        <v>1.573961800495908</v>
       </c>
       <c r="C17">
-        <v>0.575020459759287</v>
+        <v>0.2482855602804079</v>
       </c>
       <c r="D17">
-        <v>0.2603448823387424</v>
+        <v>0.500664944050925</v>
       </c>
       <c r="E17">
-        <v>0.05128036337780895</v>
+        <v>0.165711684165788</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4521400050185775</v>
+        <v>0.8596978176832692</v>
       </c>
       <c r="H17">
-        <v>0.3440045476899058</v>
+        <v>0.9226687150245283</v>
       </c>
       <c r="I17">
-        <v>0.2786504836357935</v>
+        <v>0.8850040074696679</v>
       </c>
       <c r="J17">
-        <v>0.06218510995771709</v>
+        <v>0.08189663167321726</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3362999794437371</v>
+        <v>0.4214676563169348</v>
       </c>
       <c r="M17">
-        <v>0.6922741009743305</v>
+        <v>0.3905280482982221</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.627649656763111</v>
+        <v>3.592700129975498</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.658783152866079</v>
+        <v>1.545398690640582</v>
       </c>
       <c r="C18">
-        <v>0.5634586122916119</v>
+        <v>0.2444807015894526</v>
       </c>
       <c r="D18">
-        <v>0.2575897316704499</v>
+        <v>0.5006891433771017</v>
       </c>
       <c r="E18">
-        <v>0.0517120839413403</v>
+        <v>0.1660412878484889</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4481703684751324</v>
+        <v>0.8608761723566118</v>
       </c>
       <c r="H18">
-        <v>0.3438917828371757</v>
+        <v>0.9243036041933266</v>
       </c>
       <c r="I18">
-        <v>0.281399611962037</v>
+        <v>0.8877220383070394</v>
       </c>
       <c r="J18">
-        <v>0.06164913511590697</v>
+        <v>0.08173005994304106</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3299764412803938</v>
+        <v>0.4201233205191528</v>
       </c>
       <c r="M18">
-        <v>0.6754050965371832</v>
+        <v>0.3856105544634119</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.618895016998863</v>
+        <v>3.598550308839094</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.627294501438485</v>
+        <v>1.535727025912195</v>
       </c>
       <c r="C19">
-        <v>0.5595454554491823</v>
+        <v>0.2431916817695026</v>
       </c>
       <c r="D19">
-        <v>0.2566642010748552</v>
+        <v>0.5007010029102901</v>
       </c>
       <c r="E19">
-        <v>0.05185973741071948</v>
+        <v>0.166153832902709</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4468541881519883</v>
+        <v>0.8612855092918466</v>
       </c>
       <c r="H19">
-        <v>0.3438692400770691</v>
+        <v>0.924864664199518</v>
       </c>
       <c r="I19">
-        <v>0.2823507434295962</v>
+        <v>0.8886512950205692</v>
       </c>
       <c r="J19">
-        <v>0.06146786655214598</v>
+        <v>0.08167371827403613</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3278405909841098</v>
+        <v>0.4196704399348619</v>
       </c>
       <c r="M19">
-        <v>0.669698152361839</v>
+        <v>0.3839463508777854</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.616022489987074</v>
+        <v>3.600568604713942</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.769066749749754</v>
+        <v>1.579247850093736</v>
       </c>
       <c r="C20">
-        <v>0.5771610329365444</v>
+        <v>0.2489893912391778</v>
       </c>
       <c r="D20">
-        <v>0.2608583057344021</v>
+        <v>0.5006622061016373</v>
       </c>
       <c r="E20">
-        <v>0.05120116775846828</v>
+        <v>0.1656511316051104</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4528880779635784</v>
+        <v>0.8594846557749207</v>
       </c>
       <c r="H20">
-        <v>0.3440329100724995</v>
+        <v>0.9223697030390099</v>
       </c>
       <c r="I20">
-        <v>0.2781514181362859</v>
+        <v>0.8845052262915303</v>
       </c>
       <c r="J20">
-        <v>0.0622844047673432</v>
+        <v>0.08192748713322118</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3374728222607359</v>
+        <v>0.4217175486176643</v>
       </c>
       <c r="M20">
-        <v>0.6953984177217549</v>
+        <v>0.3914385316491433</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.629313914662561</v>
+        <v>3.591635220038853</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.246781202410773</v>
+        <v>1.725415361111857</v>
       </c>
       <c r="C21">
-        <v>0.6364683483341196</v>
+        <v>0.2684148713656498</v>
       </c>
       <c r="D21">
-        <v>0.2754784854428749</v>
+        <v>0.5007865399395968</v>
       </c>
       <c r="E21">
-        <v>0.04909330220057129</v>
+        <v>0.1640279345199573</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4751889611919182</v>
+        <v>0.8541558374947442</v>
       </c>
       <c r="H21">
-        <v>0.3457104488324632</v>
+        <v>0.9145096420886034</v>
       </c>
       <c r="I21">
-        <v>0.2655071491357504</v>
+        <v>0.8711999790255689</v>
       </c>
       <c r="J21">
-        <v>0.06504283320614235</v>
+        <v>0.08278397368936652</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3702168314931953</v>
+        <v>0.4287541072080785</v>
       </c>
       <c r="M21">
-        <v>0.7821012251576533</v>
+        <v>0.4166635970057655</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.680618663501889</v>
+        <v>3.564232024788993</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.560222757658153</v>
+        <v>1.820891931652795</v>
       </c>
       <c r="C22">
-        <v>0.675341838194953</v>
+        <v>0.2810689217827189</v>
       </c>
       <c r="D22">
-        <v>0.2854515815369609</v>
+        <v>0.5010572170516383</v>
       </c>
       <c r="E22">
-        <v>0.04779609613756897</v>
+        <v>0.1630160590964183</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4913844568980608</v>
+        <v>0.8512119053213922</v>
       </c>
       <c r="H22">
-        <v>0.3476960961323954</v>
+        <v>0.9097620874813828</v>
       </c>
       <c r="I22">
-        <v>0.2583977461593499</v>
+        <v>0.8629705170941655</v>
       </c>
       <c r="J22">
-        <v>0.06685781153461789</v>
+        <v>0.08334651497239776</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3919253946635024</v>
+        <v>0.4334703267659847</v>
       </c>
       <c r="M22">
-        <v>0.8390701988196057</v>
+        <v>0.4331868208016303</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.719437548936043</v>
+        <v>3.548270523450981</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.392807443172899</v>
+        <v>1.769939734220998</v>
       </c>
       <c r="C23">
-        <v>0.6545825205332108</v>
+        <v>0.2743191121547852</v>
       </c>
       <c r="D23">
-        <v>0.2800889133096121</v>
+        <v>0.5008954457349546</v>
       </c>
       <c r="E23">
-        <v>0.0484809321226658</v>
+        <v>0.1635516391818239</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4825850672235106</v>
+        <v>0.8527337904509125</v>
       </c>
       <c r="H23">
-        <v>0.346551699373876</v>
+        <v>0.9122603185518727</v>
       </c>
       <c r="I23">
-        <v>0.2620823862658312</v>
+        <v>0.8673200395835323</v>
       </c>
       <c r="J23">
-        <v>0.06588793953932992</v>
+        <v>0.08304602817398177</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3803092712301321</v>
+        <v>0.4309424956458088</v>
       </c>
       <c r="M23">
-        <v>0.8086343117538135</v>
+        <v>0.4243647808002677</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.698213086411016</v>
+        <v>3.556611133004424</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.76127659526054</v>
+        <v>1.576858080724037</v>
       </c>
       <c r="C24">
-        <v>0.5761932672408534</v>
+        <v>0.2486712085309648</v>
       </c>
       <c r="D24">
-        <v>0.2606260561810103</v>
+        <v>0.5006633774747797</v>
       </c>
       <c r="E24">
-        <v>0.05123694445626192</v>
+        <v>0.1656784897944172</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4525493650493075</v>
+        <v>0.8595808366175532</v>
       </c>
       <c r="H24">
-        <v>0.3440197998795043</v>
+        <v>0.9225047478352337</v>
       </c>
       <c r="I24">
-        <v>0.2783766678986375</v>
+        <v>0.8847305586280214</v>
       </c>
       <c r="J24">
-        <v>0.06223951056569277</v>
+        <v>0.08191353659618983</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3369424927082889</v>
+        <v>0.4216045327890896</v>
       </c>
       <c r="M24">
-        <v>0.6939858508248378</v>
+        <v>0.391026895173141</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.62855982566569</v>
+        <v>3.59211597715958</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.084078711516554</v>
+        <v>1.368429290153188</v>
       </c>
       <c r="C25">
-        <v>0.4919814893110868</v>
+        <v>0.2208357958250247</v>
       </c>
       <c r="D25">
-        <v>0.2412746565684074</v>
+        <v>0.5012288931249316</v>
       </c>
       <c r="E25">
-        <v>0.05454058073670964</v>
+        <v>0.1681833930092385</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4264185374767351</v>
+        <v>0.8692744305605373</v>
       </c>
       <c r="H25">
-        <v>0.3447981311610846</v>
+        <v>0.9352277453513835</v>
       </c>
       <c r="I25">
-        <v>0.3005132400671329</v>
+        <v>0.905509463819989</v>
       </c>
       <c r="J25">
-        <v>0.05834994553440254</v>
+        <v>0.08070451705166093</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2913341129801097</v>
+        <v>0.4120409897699204</v>
       </c>
       <c r="M25">
-        <v>0.5713686090139376</v>
+        <v>0.3552380721899553</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.574021892409149</v>
+        <v>3.638767765219313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.214864207225276</v>
+        <v>2.587529616333711</v>
       </c>
       <c r="C2">
-        <v>0.2001994454756755</v>
+        <v>0.4301179764374297</v>
       </c>
       <c r="D2">
-        <v>0.5023494010699778</v>
+        <v>0.2282799399410891</v>
       </c>
       <c r="E2">
-        <v>0.1702098314471225</v>
+        <v>0.05724318137242346</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8783912334407518</v>
+        <v>0.4118613841849665</v>
       </c>
       <c r="H2">
-        <v>0.9460361915521531</v>
+        <v>0.3480750510563198</v>
       </c>
       <c r="I2">
-        <v>0.9225269522909834</v>
+        <v>0.3203340834086248</v>
       </c>
       <c r="J2">
-        <v>0.07982560351849344</v>
+        <v>0.05551842489059311</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4054404887654783</v>
+        <v>0.2585943297863054</v>
       </c>
       <c r="M2">
-        <v>0.3290411884122832</v>
+        <v>0.4817121738356249</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.680294265256407</v>
+        <v>1.54941891427454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.110751157864399</v>
+        <v>2.251686300620463</v>
       </c>
       <c r="C3">
-        <v>0.1861287943088143</v>
+        <v>0.3882120437063463</v>
       </c>
       <c r="D3">
-        <v>0.5035493356212584</v>
+        <v>0.2201823562567427</v>
       </c>
       <c r="E3">
-        <v>0.1716971708228554</v>
+        <v>0.0592365828126189</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8858018408170025</v>
+        <v>0.4045930699696285</v>
       </c>
       <c r="H3">
-        <v>0.9542607946025257</v>
+        <v>0.3518386469943309</v>
       </c>
       <c r="I3">
-        <v>0.9351310122851899</v>
+        <v>0.3357797172836889</v>
       </c>
       <c r="J3">
-        <v>0.07923726039927104</v>
+        <v>0.05361653634431818</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4012443182651708</v>
+        <v>0.2368565666558737</v>
       </c>
       <c r="M3">
-        <v>0.3113875287910304</v>
+        <v>0.4212174643617104</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.712910337738762</v>
+        <v>1.541458843481976</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.046814342849757</v>
+        <v>2.045626123216891</v>
       </c>
       <c r="C4">
-        <v>0.1774485326391755</v>
+        <v>0.362471188112977</v>
       </c>
       <c r="D4">
-        <v>0.504503896581511</v>
+        <v>0.2155377507537395</v>
       </c>
       <c r="E4">
-        <v>0.1726667698276714</v>
+        <v>0.06053826095115866</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8909588459023752</v>
+        <v>0.4013117361381759</v>
       </c>
       <c r="H4">
-        <v>0.9597548147556765</v>
+        <v>0.3548662508684473</v>
       </c>
       <c r="I4">
-        <v>0.9433980698569684</v>
+        <v>0.3461993434103086</v>
       </c>
       <c r="J4">
-        <v>0.07887971963609175</v>
+        <v>0.05245628001052793</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3988052554240227</v>
+        <v>0.2237090615404043</v>
       </c>
       <c r="M4">
-        <v>0.3005991828378143</v>
+        <v>0.3841678492778371</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.735141989268811</v>
+        <v>1.54056533363979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.020758700332749</v>
+        <v>1.961668499609743</v>
       </c>
       <c r="C5">
-        <v>0.1739012395003101</v>
+        <v>0.3519763687487227</v>
       </c>
       <c r="D5">
-        <v>0.5049477411495502</v>
+        <v>0.2137242296030593</v>
       </c>
       <c r="E5">
-        <v>0.1730760808267489</v>
+        <v>0.06108794524726235</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8932128530664301</v>
+        <v>0.4002576287179735</v>
       </c>
       <c r="H5">
-        <v>0.9621053889245132</v>
+        <v>0.3562740139085037</v>
       </c>
       <c r="I5">
-        <v>0.9468997088524347</v>
+        <v>0.3506726831223652</v>
       </c>
       <c r="J5">
-        <v>0.07873496897397914</v>
+        <v>0.05198524017670536</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.397846014210117</v>
+        <v>0.2183984710297295</v>
       </c>
       <c r="M5">
-        <v>0.2962160285197868</v>
+        <v>0.3690886857632805</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.744755947444588</v>
+        <v>1.541162741226913</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.01643218399056</v>
+        <v>1.94772755184988</v>
       </c>
       <c r="C6">
-        <v>0.1733116166213335</v>
+        <v>0.3502333252606888</v>
       </c>
       <c r="D6">
-        <v>0.5050247567479431</v>
+        <v>0.2134277903716537</v>
       </c>
       <c r="E6">
-        <v>0.173144904259674</v>
+        <v>0.0611803732821885</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8935963356291268</v>
+        <v>0.4000992936759644</v>
       </c>
       <c r="H6">
-        <v>0.9625024487999951</v>
+        <v>0.3565181035216298</v>
       </c>
       <c r="I6">
-        <v>0.9474891693228553</v>
+        <v>0.3514289737578196</v>
       </c>
       <c r="J6">
-        <v>0.07871099117103952</v>
+        <v>0.0519071283476471</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3976888328266739</v>
+        <v>0.2175194114614882</v>
       </c>
       <c r="M6">
-        <v>0.2954890154736489</v>
+        <v>0.3665858042437122</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.746385816678355</v>
+        <v>1.541318799910897</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.046462948356293</v>
+        <v>2.044493816828492</v>
       </c>
       <c r="C7">
-        <v>0.1774007328256744</v>
+        <v>0.3623296756926209</v>
       </c>
       <c r="D7">
-        <v>0.5045096602103172</v>
+        <v>0.215512976340861</v>
       </c>
       <c r="E7">
-        <v>0.1726722324543957</v>
+        <v>0.06054559667678472</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8909886269757408</v>
+        <v>0.4012963920183523</v>
       </c>
       <c r="H7">
-        <v>0.9597860630219657</v>
+        <v>0.3548845400057701</v>
       </c>
       <c r="I7">
-        <v>0.9434447567726139</v>
+        <v>0.3462587627055491</v>
       </c>
       <c r="J7">
-        <v>0.07887776360627186</v>
+        <v>0.05244992036427121</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3987921780819761</v>
+        <v>0.2236372541761185</v>
       </c>
       <c r="M7">
-        <v>0.3005400162488527</v>
+        <v>0.3839644162862186</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.7352694020108</v>
+        <v>1.540569552436082</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.17896940495848</v>
+        <v>2.471684953899967</v>
       </c>
       <c r="C8">
-        <v>0.1953565032417544</v>
+        <v>0.4156693512772165</v>
       </c>
       <c r="D8">
-        <v>0.5027179860282303</v>
+        <v>0.2254180275066489</v>
       </c>
       <c r="E8">
-        <v>0.1707109779148164</v>
+        <v>0.05791418888804234</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8808203872069811</v>
+        <v>0.4091014156823789</v>
       </c>
       <c r="H8">
-        <v>0.9487798950606177</v>
+        <v>0.3492201313414114</v>
       </c>
       <c r="I8">
-        <v>0.9267631916843193</v>
+        <v>0.3254605007679707</v>
       </c>
       <c r="J8">
-        <v>0.07962198491317451</v>
+        <v>0.05486102232582724</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4039652164130558</v>
+        <v>0.2510558291387071</v>
       </c>
       <c r="M8">
-        <v>0.3229438051350613</v>
+        <v>0.4608309608983987</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.691082496955474</v>
+        <v>1.545818929725229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.438657109959081</v>
+        <v>3.311785329338818</v>
       </c>
       <c r="C9">
-        <v>0.230234508342221</v>
+        <v>0.5203167019253101</v>
       </c>
       <c r="D9">
-        <v>0.5009291916411343</v>
+        <v>0.2475882970312</v>
       </c>
       <c r="E9">
-        <v>0.1673113817869192</v>
+        <v>0.05338485344296018</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8657012766164343</v>
+        <v>0.4344480869405487</v>
       </c>
       <c r="H9">
-        <v>0.9307183371165308</v>
+        <v>0.3440958421611953</v>
       </c>
       <c r="I9">
-        <v>0.8982430953031049</v>
+        <v>0.292483774500937</v>
       </c>
       <c r="J9">
-        <v>0.08111005888186895</v>
+        <v>0.05965468223824288</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4151942069556895</v>
+        <v>0.3065561919300848</v>
       </c>
       <c r="M9">
-        <v>0.3672701315979126</v>
+        <v>0.6125576542357507</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.621937643179251</v>
+        <v>1.589839066611631</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.629279268799053</v>
+        <v>3.932304515082251</v>
       </c>
       <c r="C10">
-        <v>0.2556462687513203</v>
+        <v>0.5974351879049209</v>
       </c>
       <c r="D10">
-        <v>0.5006622773241389</v>
+        <v>0.2657716009280193</v>
       </c>
       <c r="E10">
-        <v>0.1650846650083402</v>
+        <v>0.05046215077739635</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8575405022835128</v>
+        <v>0.4601733151530283</v>
       </c>
       <c r="H10">
-        <v>0.9195926168896733</v>
+        <v>0.3444151749686739</v>
       </c>
       <c r="I10">
-        <v>0.879847576787121</v>
+        <v>0.2735751881136075</v>
       </c>
       <c r="J10">
-        <v>0.08221995609919119</v>
+        <v>0.06322581533032334</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4240991817468966</v>
+        <v>0.348613019867571</v>
       </c>
       <c r="M10">
-        <v>0.400062413039187</v>
+        <v>0.7250077524578131</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.581821309816405</v>
+        <v>1.645737163074983</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.715946749252794</v>
+        <v>4.215758698081572</v>
       </c>
       <c r="C11">
-        <v>0.2671585253259536</v>
+        <v>0.6326192235860049</v>
       </c>
       <c r="D11">
-        <v>0.5007674347790072</v>
+        <v>0.2745072691449195</v>
       </c>
       <c r="E11">
-        <v>0.1641302592984175</v>
+        <v>0.04922525072946726</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8544697524940119</v>
+        <v>0.47365177005139</v>
       </c>
       <c r="H11">
-        <v>0.9149962620795122</v>
+        <v>0.3455509576113229</v>
       </c>
       <c r="I11">
-        <v>0.8720349732240464</v>
+        <v>0.2662605325284062</v>
       </c>
       <c r="J11">
-        <v>0.0827283106323442</v>
+        <v>0.06486340269310631</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4282912885865073</v>
+        <v>0.3680776095702498</v>
       </c>
       <c r="M11">
-        <v>0.4150268424488601</v>
+        <v>0.776466165516247</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.565894202070979</v>
+        <v>1.67699308652891</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.748757019383845</v>
+        <v>4.323303847842567</v>
       </c>
       <c r="C12">
-        <v>0.2715108466990728</v>
+        <v>0.645961614133256</v>
       </c>
       <c r="D12">
-        <v>0.500839758929331</v>
+        <v>0.2778865806147195</v>
       </c>
       <c r="E12">
-        <v>0.1637772504287458</v>
+        <v>0.04877062040916158</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8533993451251973</v>
+        <v>0.4790319578758471</v>
       </c>
       <c r="H12">
-        <v>0.9133225389350486</v>
+        <v>0.3461327968678773</v>
       </c>
       <c r="I12">
-        <v>0.8691564997915151</v>
+        <v>0.2636876234282042</v>
       </c>
       <c r="J12">
-        <v>0.08292129152484407</v>
+        <v>0.06548559447766422</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4298989052470716</v>
+        <v>0.3755009334551005</v>
       </c>
       <c r="M12">
-        <v>0.4206999550307202</v>
+        <v>0.7960037652332019</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.560197145911985</v>
+        <v>1.689730664483335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.741691164705173</v>
+        <v>4.300132223513174</v>
       </c>
       <c r="C13">
-        <v>0.2705738172769543</v>
+        <v>0.643087177274424</v>
       </c>
       <c r="D13">
-        <v>0.5008227382838442</v>
+        <v>0.2771555379225248</v>
       </c>
       <c r="E13">
-        <v>0.1638529036626393</v>
+        <v>0.048867914158782</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8536257637148594</v>
+        <v>0.4778606074212632</v>
       </c>
       <c r="H13">
-        <v>0.9136800337844591</v>
+        <v>0.3460005832762647</v>
       </c>
       <c r="I13">
-        <v>0.8697728714778918</v>
+        <v>0.2642327854394004</v>
       </c>
       <c r="J13">
-        <v>0.08287970867614192</v>
+        <v>0.06535149886184399</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4295517820770698</v>
+        <v>0.3738997747242649</v>
       </c>
       <c r="M13">
-        <v>0.4194778694253856</v>
+        <v>0.791793578539064</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.561409240919403</v>
+        <v>1.686946237148049</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.718646258137824</v>
+        <v>4.224602121469673</v>
       </c>
       <c r="C14">
-        <v>0.2675167376315812</v>
+        <v>0.633716504635089</v>
       </c>
       <c r="D14">
-        <v>0.5007727339642969</v>
+        <v>0.2747838307621748</v>
       </c>
       <c r="E14">
-        <v>0.1641010486999912</v>
+        <v>0.04918756973455363</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8543798363472348</v>
+        <v>0.4740887416483872</v>
       </c>
       <c r="H14">
-        <v>0.9148572248763855</v>
+        <v>0.3455957290543381</v>
       </c>
       <c r="I14">
-        <v>0.8717965558265632</v>
+        <v>0.2660448384867315</v>
       </c>
       <c r="J14">
-        <v>0.08274417781390042</v>
+        <v>0.06491454806289099</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4284231450396589</v>
+        <v>0.3686872506750802</v>
       </c>
       <c r="M14">
-        <v>0.4154934464577806</v>
+        <v>0.7780724591804287</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.565418802431111</v>
+        <v>1.67802256406145</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.704529379393364</v>
+        <v>4.178365914836206</v>
       </c>
       <c r="C15">
-        <v>0.2656432530037307</v>
+        <v>0.6279792976523879</v>
       </c>
       <c r="D15">
-        <v>0.5007463354385351</v>
+        <v>0.2733405186953632</v>
       </c>
       <c r="E15">
-        <v>0.164254138718098</v>
+        <v>0.0493851728693171</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8548537678187103</v>
+        <v>0.4718149756574803</v>
       </c>
       <c r="H15">
-        <v>0.9155869893294977</v>
+        <v>0.3453677930557149</v>
       </c>
       <c r="I15">
-        <v>0.8730465407644701</v>
+        <v>0.2671807954702921</v>
       </c>
       <c r="J15">
-        <v>0.08266122294411815</v>
+        <v>0.06464717912003692</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4277344429480507</v>
+        <v>0.3655014111939181</v>
       </c>
       <c r="M15">
-        <v>0.4130536962352167</v>
+        <v>0.7696748105827567</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.567918305132963</v>
+        <v>1.672675941580025</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.623614218632895</v>
+        <v>3.91380697774855</v>
       </c>
       <c r="C16">
-        <v>0.2548929336419121</v>
+        <v>0.5951382434720358</v>
       </c>
       <c r="D16">
-        <v>0.5006599576704787</v>
+        <v>0.2652104259522048</v>
       </c>
       <c r="E16">
-        <v>0.1651482144229144</v>
+        <v>0.05054488598623585</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8577541073572093</v>
+        <v>0.4593299489357321</v>
       </c>
       <c r="H16">
-        <v>0.9199023505829018</v>
+        <v>0.3443616615239193</v>
       </c>
       <c r="I16">
-        <v>0.8803693371315546</v>
+        <v>0.2740801163698166</v>
       </c>
       <c r="J16">
-        <v>0.08218680186442739</v>
+        <v>0.06311907423583918</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4238280462956823</v>
+        <v>0.3473480491741583</v>
       </c>
       <c r="M16">
-        <v>0.3990853685646272</v>
+        <v>0.7216515886694381</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.582908933565307</v>
+        <v>1.64381712047728</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.573961800495908</v>
+        <v>3.751836156539241</v>
       </c>
       <c r="C17">
-        <v>0.2482855602804079</v>
+        <v>0.5750204597592585</v>
       </c>
       <c r="D17">
-        <v>0.500664944050925</v>
+        <v>0.2603448823386856</v>
       </c>
       <c r="E17">
-        <v>0.165711684165788</v>
+        <v>0.05128036337781161</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8596978176832692</v>
+        <v>0.452140005018606</v>
       </c>
       <c r="H17">
-        <v>0.9226687150245283</v>
+        <v>0.3440045476899058</v>
       </c>
       <c r="I17">
-        <v>0.8850040074696679</v>
+        <v>0.2786504836357864</v>
       </c>
       <c r="J17">
-        <v>0.08189663167321726</v>
+        <v>0.06218510995776327</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4214676563169348</v>
+        <v>0.336299979443794</v>
       </c>
       <c r="M17">
-        <v>0.3905280482982221</v>
+        <v>0.6922741009743234</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.592700129975498</v>
+        <v>1.627649656763111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.545398690640582</v>
+        <v>3.658783152866022</v>
       </c>
       <c r="C18">
-        <v>0.2444807015894526</v>
+        <v>0.5634586122918108</v>
       </c>
       <c r="D18">
-        <v>0.5006891433771017</v>
+        <v>0.2575897316704925</v>
       </c>
       <c r="E18">
-        <v>0.1660412878484889</v>
+        <v>0.05171208394131988</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.8608761723566118</v>
+        <v>0.4481703684751892</v>
       </c>
       <c r="H18">
-        <v>0.9243036041933266</v>
+        <v>0.3438917828371899</v>
       </c>
       <c r="I18">
-        <v>0.8877220383070394</v>
+        <v>0.2813996119620512</v>
       </c>
       <c r="J18">
-        <v>0.08173005994304106</v>
+        <v>0.06164913511589631</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4201233205191528</v>
+        <v>0.3299764412804791</v>
       </c>
       <c r="M18">
-        <v>0.3856105544634119</v>
+        <v>0.6754050965371974</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.598550308839094</v>
+        <v>1.618895016998806</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.535727025912195</v>
+        <v>3.627294501438485</v>
       </c>
       <c r="C19">
-        <v>0.2431916817695026</v>
+        <v>0.5595454554488697</v>
       </c>
       <c r="D19">
-        <v>0.5007010029102901</v>
+        <v>0.2566642010748694</v>
       </c>
       <c r="E19">
-        <v>0.166153832902709</v>
+        <v>0.05185973741073457</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8612855092918466</v>
+        <v>0.4468541881519741</v>
       </c>
       <c r="H19">
-        <v>0.924864664199518</v>
+        <v>0.3438692400770691</v>
       </c>
       <c r="I19">
-        <v>0.8886512950205692</v>
+        <v>0.2823507434295998</v>
       </c>
       <c r="J19">
-        <v>0.08167371827403613</v>
+        <v>0.06146786655222414</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4196704399348619</v>
+        <v>0.3278405909841808</v>
       </c>
       <c r="M19">
-        <v>0.3839463508777854</v>
+        <v>0.6696981523618462</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.600568604713942</v>
+        <v>1.616022489987046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.579247850093736</v>
+        <v>3.769066749749925</v>
       </c>
       <c r="C20">
-        <v>0.2489893912391778</v>
+        <v>0.5771610329370276</v>
       </c>
       <c r="D20">
-        <v>0.5006622061016373</v>
+        <v>0.2608583057342315</v>
       </c>
       <c r="E20">
-        <v>0.1656511316051104</v>
+        <v>0.05120116775845496</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.8594846557749207</v>
+        <v>0.4528880779635784</v>
       </c>
       <c r="H20">
-        <v>0.9223697030390099</v>
+        <v>0.3440329100724995</v>
       </c>
       <c r="I20">
-        <v>0.8845052262915303</v>
+        <v>0.278151418136293</v>
       </c>
       <c r="J20">
-        <v>0.08192748713322118</v>
+        <v>0.06228440476727215</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4217175486176643</v>
+        <v>0.3374728222607217</v>
       </c>
       <c r="M20">
-        <v>0.3914385316491433</v>
+        <v>0.6953984177217549</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.591635220038853</v>
+        <v>1.629313914662589</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.725415361111857</v>
+        <v>4.246781202410773</v>
       </c>
       <c r="C21">
-        <v>0.2684148713656498</v>
+        <v>0.6364683483342048</v>
       </c>
       <c r="D21">
-        <v>0.5007865399395968</v>
+        <v>0.2754784854429602</v>
       </c>
       <c r="E21">
-        <v>0.1640279345199573</v>
+        <v>0.04909330220056773</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8541558374947442</v>
+        <v>0.4751889611918756</v>
       </c>
       <c r="H21">
-        <v>0.9145096420886034</v>
+        <v>0.3457104488324632</v>
       </c>
       <c r="I21">
-        <v>0.8711999790255689</v>
+        <v>0.2655071491357326</v>
       </c>
       <c r="J21">
-        <v>0.08278397368936652</v>
+        <v>0.06504283320626314</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4287541072080785</v>
+        <v>0.3702168314932237</v>
       </c>
       <c r="M21">
-        <v>0.4166635970057655</v>
+        <v>0.7821012251576676</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.564232024788993</v>
+        <v>1.680618663501889</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.820891931652795</v>
+        <v>4.560222757657925</v>
       </c>
       <c r="C22">
-        <v>0.2810689217827189</v>
+        <v>0.6753418381950382</v>
       </c>
       <c r="D22">
-        <v>0.5010572170516383</v>
+        <v>0.2854515815370746</v>
       </c>
       <c r="E22">
-        <v>0.1630160590964183</v>
+        <v>0.04779609613756541</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.8512119053213922</v>
+        <v>0.4913844568979613</v>
       </c>
       <c r="H22">
-        <v>0.9097620874813828</v>
+        <v>0.3476960961323954</v>
       </c>
       <c r="I22">
-        <v>0.8629705170941655</v>
+        <v>0.2583977461593534</v>
       </c>
       <c r="J22">
-        <v>0.08334651497239776</v>
+        <v>0.06685781153465342</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4334703267659847</v>
+        <v>0.3919253946635024</v>
       </c>
       <c r="M22">
-        <v>0.4331868208016303</v>
+        <v>0.8390701988196128</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.548270523450981</v>
+        <v>1.719437548936071</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.769939734220998</v>
+        <v>4.392807443172842</v>
       </c>
       <c r="C23">
-        <v>0.2743191121547852</v>
+        <v>0.6545825205336655</v>
       </c>
       <c r="D23">
-        <v>0.5008954457349546</v>
+        <v>0.2800889133097115</v>
       </c>
       <c r="E23">
-        <v>0.1635516391818239</v>
+        <v>0.04848093212268978</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8527337904509125</v>
+        <v>0.4825850672235106</v>
       </c>
       <c r="H23">
-        <v>0.9122603185518727</v>
+        <v>0.3465516993738902</v>
       </c>
       <c r="I23">
-        <v>0.8673200395835323</v>
+        <v>0.2620823862658277</v>
       </c>
       <c r="J23">
-        <v>0.08304602817398177</v>
+        <v>0.06588793953928018</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4309424956458088</v>
+        <v>0.3803092712301606</v>
       </c>
       <c r="M23">
-        <v>0.4243647808002677</v>
+        <v>0.8086343117537922</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.556611133004424</v>
+        <v>1.698213086410959</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.576858080724037</v>
+        <v>3.761276595260597</v>
       </c>
       <c r="C24">
-        <v>0.2486712085309648</v>
+        <v>0.5761932672409387</v>
       </c>
       <c r="D24">
-        <v>0.5006633774747797</v>
+        <v>0.260626056180655</v>
       </c>
       <c r="E24">
-        <v>0.1656784897944172</v>
+        <v>0.05123694445624771</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8595808366175532</v>
+        <v>0.4525493650492791</v>
       </c>
       <c r="H24">
-        <v>0.9225047478352337</v>
+        <v>0.3440197998794901</v>
       </c>
       <c r="I24">
-        <v>0.8847305586280214</v>
+        <v>0.2783766678986517</v>
       </c>
       <c r="J24">
-        <v>0.08191353659618983</v>
+        <v>0.06223951056562882</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4216045327890896</v>
+        <v>0.3369424927083315</v>
       </c>
       <c r="M24">
-        <v>0.391026895173141</v>
+        <v>0.693985850824852</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.59211597715958</v>
+        <v>1.628559825665718</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.368429290153188</v>
+        <v>3.084078711516497</v>
       </c>
       <c r="C25">
-        <v>0.2208357958250247</v>
+        <v>0.4919814893111152</v>
       </c>
       <c r="D25">
-        <v>0.5012288931249316</v>
+        <v>0.24127465656818</v>
       </c>
       <c r="E25">
-        <v>0.1681833930092385</v>
+        <v>0.05454058073674251</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8692744305605373</v>
+        <v>0.4264185374767493</v>
       </c>
       <c r="H25">
-        <v>0.9352277453513835</v>
+        <v>0.3447981311610988</v>
       </c>
       <c r="I25">
-        <v>0.905509463819989</v>
+        <v>0.3005132400671258</v>
       </c>
       <c r="J25">
-        <v>0.08070451705166093</v>
+        <v>0.05834994553443806</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4120409897699204</v>
+        <v>0.2913341129801381</v>
       </c>
       <c r="M25">
-        <v>0.3552380721899553</v>
+        <v>0.5713686090139447</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.638767765219313</v>
+        <v>1.574021892409206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.587529616333711</v>
+        <v>2.591844119531402</v>
       </c>
       <c r="C2">
-        <v>0.4301179764374297</v>
+        <v>0.9937838630453371</v>
       </c>
       <c r="D2">
-        <v>0.2282799399410891</v>
+        <v>0.2015576033234652</v>
       </c>
       <c r="E2">
-        <v>0.05724318137242346</v>
+        <v>0.2284432081920329</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4118613841849665</v>
+        <v>1.352742314480309</v>
       </c>
       <c r="H2">
-        <v>0.3480750510563198</v>
+        <v>0.002230342803465346</v>
       </c>
       <c r="I2">
-        <v>0.3203340834086248</v>
+        <v>0.005571268122437356</v>
       </c>
       <c r="J2">
-        <v>0.05551842489059311</v>
+        <v>0.7922797498123373</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.627605829838636</v>
       </c>
       <c r="L2">
-        <v>0.2585943297863054</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4817121738356249</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.54941891427454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.050703393246572</v>
+      </c>
+      <c r="P2">
+        <v>0.7466815132820468</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.251686300620463</v>
+        <v>2.250690138630318</v>
       </c>
       <c r="C3">
-        <v>0.3882120437063463</v>
+        <v>0.8616538373537992</v>
       </c>
       <c r="D3">
-        <v>0.2201823562567427</v>
+        <v>0.1745429706860477</v>
       </c>
       <c r="E3">
-        <v>0.0592365828126189</v>
+        <v>0.200146283826296</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4045930699696285</v>
+        <v>1.210168882712736</v>
       </c>
       <c r="H3">
-        <v>0.3518386469943309</v>
+        <v>0.0008943187953336373</v>
       </c>
       <c r="I3">
-        <v>0.3357797172836889</v>
+        <v>0.003108533547862002</v>
       </c>
       <c r="J3">
-        <v>0.05361653634431818</v>
+        <v>0.7297660079726995</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5844382767883403</v>
       </c>
       <c r="L3">
-        <v>0.2368565666558737</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4212174643617104</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.541458843481976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.9138776226539633</v>
+      </c>
+      <c r="P3">
+        <v>0.7767770368632974</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.045626123216891</v>
+        <v>2.041137387168135</v>
       </c>
       <c r="C4">
-        <v>0.362471188112977</v>
+        <v>0.7813148084612465</v>
       </c>
       <c r="D4">
-        <v>0.2155377507537395</v>
+        <v>0.1581464863759408</v>
       </c>
       <c r="E4">
-        <v>0.06053826095115866</v>
+        <v>0.1828993525968308</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4013117361381759</v>
+        <v>1.123542726637439</v>
       </c>
       <c r="H4">
-        <v>0.3548662508684473</v>
+        <v>0.0003584318280205334</v>
       </c>
       <c r="I4">
-        <v>0.3461993434103086</v>
+        <v>0.001978186985688968</v>
       </c>
       <c r="J4">
-        <v>0.05245628001052793</v>
+        <v>0.6919300822555527</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5582492580082601</v>
       </c>
       <c r="L4">
-        <v>0.2237090615404043</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3841678492778371</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.54056533363979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.8300663234859798</v>
+      </c>
+      <c r="P4">
+        <v>0.7956732018117378</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961668499609743</v>
+        <v>1.954050652414452</v>
       </c>
       <c r="C5">
-        <v>0.3519763687487227</v>
+        <v>0.7493615975609771</v>
       </c>
       <c r="D5">
-        <v>0.2137242296030593</v>
+        <v>0.1515050671794</v>
       </c>
       <c r="E5">
-        <v>0.06108794524726235</v>
+        <v>0.1759136942215598</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4002576287179735</v>
+        <v>1.086960502049266</v>
       </c>
       <c r="H5">
-        <v>0.3562740139085037</v>
+        <v>0.0002060661572884648</v>
       </c>
       <c r="I5">
-        <v>0.3506726831223652</v>
+        <v>0.00166314170008075</v>
       </c>
       <c r="J5">
-        <v>0.05198524017670536</v>
+        <v>0.6758885212438486</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5467573737734455</v>
       </c>
       <c r="L5">
-        <v>0.2183984710297295</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3690886857632805</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.541162741226913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7958176313457344</v>
+      </c>
+      <c r="P5">
+        <v>0.8031205837856472</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.94772755184988</v>
+        <v>1.937577558239468</v>
       </c>
       <c r="C6">
-        <v>0.3502333252606888</v>
+        <v>0.7448183765085332</v>
       </c>
       <c r="D6">
-        <v>0.2134277903716537</v>
+        <v>0.1504026397807365</v>
       </c>
       <c r="E6">
-        <v>0.0611803732821885</v>
+        <v>0.1747768620051104</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4000992936759644</v>
+        <v>1.079089452194722</v>
       </c>
       <c r="H6">
-        <v>0.3565181035216298</v>
+        <v>0.0001840554652012827</v>
       </c>
       <c r="I6">
-        <v>0.3514289737578196</v>
+        <v>0.001693045334964616</v>
       </c>
       <c r="J6">
-        <v>0.0519071283476471</v>
+        <v>0.6723201397469722</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.543767679751717</v>
       </c>
       <c r="L6">
-        <v>0.2175194114614882</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3665858042437122</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.541318799910897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7899733532304367</v>
+      </c>
+      <c r="P6">
+        <v>0.8039347943712389</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.044493816828492</v>
+        <v>2.034453140313133</v>
       </c>
       <c r="C7">
-        <v>0.3623296756926209</v>
+        <v>0.7829449217939271</v>
       </c>
       <c r="D7">
-        <v>0.215512976340861</v>
+        <v>0.1580510359159319</v>
       </c>
       <c r="E7">
-        <v>0.06054559667678472</v>
+        <v>0.1828644818032039</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4012963920183523</v>
+        <v>1.118099094185681</v>
       </c>
       <c r="H7">
-        <v>0.3548845400057701</v>
+        <v>0.0003537765933672166</v>
       </c>
       <c r="I7">
-        <v>0.3462587627055491</v>
+        <v>0.00216678369284562</v>
       </c>
       <c r="J7">
-        <v>0.05244992036427121</v>
+        <v>0.6892188298153883</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5551238755057284</v>
       </c>
       <c r="L7">
-        <v>0.2236372541761185</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3839644162862186</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.540569552436082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.8291675834131524</v>
+      </c>
+      <c r="P7">
+        <v>0.7946157069303084</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.471684953899967</v>
+        <v>2.466818867125539</v>
       </c>
       <c r="C8">
-        <v>0.4156693512772165</v>
+        <v>0.9507960975972765</v>
       </c>
       <c r="D8">
-        <v>0.2254180275066489</v>
+        <v>0.192190641021341</v>
       </c>
       <c r="E8">
-        <v>0.05791418888804234</v>
+        <v>0.2187330629618671</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4091014156823789</v>
+        <v>1.296772817675389</v>
       </c>
       <c r="H8">
-        <v>0.3492201313414114</v>
+        <v>0.00170103974695146</v>
       </c>
       <c r="I8">
-        <v>0.3254605007679707</v>
+        <v>0.004855765954292934</v>
       </c>
       <c r="J8">
-        <v>0.05486102232582724</v>
+        <v>0.7672832948653365</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6086983375654924</v>
       </c>
       <c r="L8">
-        <v>0.2510558291387071</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4608309608983987</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.545818929725229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1.002885336358851</v>
+      </c>
+      <c r="P8">
+        <v>0.7554972870327443</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.311785329338818</v>
+        <v>3.325584948531912</v>
       </c>
       <c r="C9">
-        <v>0.5203167019253101</v>
+        <v>1.283827574439385</v>
       </c>
       <c r="D9">
-        <v>0.2475882970312</v>
+        <v>0.2609566194689421</v>
       </c>
       <c r="E9">
-        <v>0.05338485344296018</v>
+        <v>0.2903285956253825</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4344480869405487</v>
+        <v>1.664987293856228</v>
       </c>
       <c r="H9">
-        <v>0.3440958421611953</v>
+        <v>0.006850327500965037</v>
       </c>
       <c r="I9">
-        <v>0.292483774500937</v>
+        <v>0.01325135633441832</v>
       </c>
       <c r="J9">
-        <v>0.05965468223824288</v>
+        <v>0.9299645690106786</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7221658115902159</v>
       </c>
       <c r="L9">
-        <v>0.3065561919300848</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6125576542357507</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.589839066611631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.346691946477904</v>
+      </c>
+      <c r="P9">
+        <v>0.6843233281788486</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.932304515082251</v>
+        <v>3.948716869465443</v>
       </c>
       <c r="C10">
-        <v>0.5974351879049209</v>
+        <v>1.528055004345788</v>
       </c>
       <c r="D10">
-        <v>0.2657716009280193</v>
+        <v>0.3129421487613087</v>
       </c>
       <c r="E10">
-        <v>0.05046215077739635</v>
+        <v>0.3210267546610908</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4601733151530283</v>
+        <v>1.914714735148777</v>
       </c>
       <c r="H10">
-        <v>0.3444151749686739</v>
+        <v>0.01220919379606</v>
       </c>
       <c r="I10">
-        <v>0.2735751881136075</v>
+        <v>0.02189547826631788</v>
       </c>
       <c r="J10">
-        <v>0.06322581533032334</v>
+        <v>1.039486340803393</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7948722519710429</v>
       </c>
       <c r="L10">
-        <v>0.348613019867571</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7250077524578131</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.645737163074983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.556503835198455</v>
+      </c>
+      <c r="P10">
+        <v>0.6294708217119727</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.215758698081572</v>
+        <v>4.155123004468521</v>
       </c>
       <c r="C11">
-        <v>0.6326192235860049</v>
+        <v>1.573196300005861</v>
       </c>
       <c r="D11">
-        <v>0.2745072691449195</v>
+        <v>0.3363534829620534</v>
       </c>
       <c r="E11">
-        <v>0.04922525072946726</v>
+        <v>0.1757466040062745</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.47365177005139</v>
+        <v>1.798277552334213</v>
       </c>
       <c r="H11">
-        <v>0.3455509576113229</v>
+        <v>0.02981341865911347</v>
       </c>
       <c r="I11">
-        <v>0.2662605325284062</v>
+        <v>0.02494067546831769</v>
       </c>
       <c r="J11">
-        <v>0.06486340269310631</v>
+        <v>0.9749342910366181</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7232325925918417</v>
       </c>
       <c r="L11">
-        <v>0.3680776095702498</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.776466165516247</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.67699308652891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.279433060285783</v>
+      </c>
+      <c r="P11">
+        <v>0.5748838365856308</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.323303847842567</v>
+        <v>4.205745265656503</v>
       </c>
       <c r="C12">
-        <v>0.645961614133256</v>
+        <v>1.555612645871975</v>
       </c>
       <c r="D12">
-        <v>0.2778865806147195</v>
+        <v>0.3450292534669899</v>
       </c>
       <c r="E12">
-        <v>0.04877062040916158</v>
+        <v>0.1040762237855564</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4790319578758471</v>
+        <v>1.658321948227268</v>
       </c>
       <c r="H12">
-        <v>0.3461327968678773</v>
+        <v>0.06723488119123999</v>
       </c>
       <c r="I12">
-        <v>0.2636876234282042</v>
+        <v>0.02532988399113112</v>
       </c>
       <c r="J12">
-        <v>0.06548559447766422</v>
+        <v>0.9024906132222554</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6544798644855092</v>
       </c>
       <c r="L12">
-        <v>0.3755009334551005</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7960037652332019</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.689730664483335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.028116694596228</v>
+      </c>
+      <c r="P12">
+        <v>0.5552086592306402</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.300132223513174</v>
+        <v>4.129869089106819</v>
       </c>
       <c r="C13">
-        <v>0.643087177274424</v>
+        <v>1.49206747112737</v>
       </c>
       <c r="D13">
-        <v>0.2771555379225248</v>
+        <v>0.3426634587250419</v>
       </c>
       <c r="E13">
-        <v>0.048867914158782</v>
+        <v>0.08402092338345657</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4778606074212632</v>
+        <v>1.48470509951963</v>
       </c>
       <c r="H13">
-        <v>0.3460005832762647</v>
+        <v>0.1214077640867401</v>
       </c>
       <c r="I13">
-        <v>0.2642327854394004</v>
+        <v>0.02388041916054373</v>
       </c>
       <c r="J13">
-        <v>0.06535149886184399</v>
+        <v>0.8159580375857729</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5793810612177239</v>
       </c>
       <c r="L13">
-        <v>0.3738997747242649</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.791793578539064</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.686946237148049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7833665113400201</v>
+      </c>
+      <c r="P13">
+        <v>0.55842413814349</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.224602121469673</v>
+        <v>4.018207287377663</v>
       </c>
       <c r="C14">
-        <v>0.633716504635089</v>
+        <v>1.427937209248341</v>
       </c>
       <c r="D14">
-        <v>0.2747838307621748</v>
+        <v>0.3360252001892263</v>
       </c>
       <c r="E14">
-        <v>0.04918756973455363</v>
+        <v>0.1005012362323932</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4740887416483872</v>
+        <v>1.348425561869533</v>
       </c>
       <c r="H14">
-        <v>0.3455957290543381</v>
+        <v>0.169594388923386</v>
       </c>
       <c r="I14">
-        <v>0.2660448384867315</v>
+        <v>0.02217068237139141</v>
       </c>
       <c r="J14">
-        <v>0.06491454806289099</v>
+        <v>0.7491635524169169</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5240274063482815</v>
       </c>
       <c r="L14">
-        <v>0.3686872506750802</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7780724591804287</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.67802256406145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6202349948403238</v>
+      </c>
+      <c r="P14">
+        <v>0.5723483426609128</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.178365914836206</v>
+        <v>3.961989519105487</v>
       </c>
       <c r="C15">
-        <v>0.6279792976523879</v>
+        <v>1.403527304984379</v>
       </c>
       <c r="D15">
-        <v>0.2733405186953632</v>
+        <v>0.3320601992009102</v>
       </c>
       <c r="E15">
-        <v>0.0493851728693171</v>
+        <v>0.1079182820882636</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4718149756574803</v>
+        <v>1.30630229746501</v>
       </c>
       <c r="H15">
-        <v>0.3453677930557149</v>
+        <v>0.1816694669743839</v>
       </c>
       <c r="I15">
-        <v>0.2671807954702921</v>
+        <v>0.02145817260682747</v>
       </c>
       <c r="J15">
-        <v>0.06464717912003692</v>
+        <v>0.729044237574243</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5080775486829552</v>
       </c>
       <c r="L15">
-        <v>0.3655014111939181</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7696748105827567</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.672675941580025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5789081820070763</v>
+      </c>
+      <c r="P15">
+        <v>0.578942850613096</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.91380697774855</v>
+        <v>3.706414049481566</v>
       </c>
       <c r="C16">
-        <v>0.5951382434720358</v>
+        <v>1.313583454683112</v>
       </c>
       <c r="D16">
-        <v>0.2652104259522048</v>
+        <v>0.3097999188643143</v>
       </c>
       <c r="E16">
-        <v>0.05054488598623585</v>
+        <v>0.09977609717739355</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4593299489357321</v>
+        <v>1.234607099558104</v>
       </c>
       <c r="H16">
-        <v>0.3443616615239193</v>
+        <v>0.1671572665853773</v>
       </c>
       <c r="I16">
-        <v>0.2740801163698166</v>
+        <v>0.01797881035353033</v>
       </c>
       <c r="J16">
-        <v>0.06311907423583918</v>
+        <v>0.699426310247361</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4916318578504075</v>
       </c>
       <c r="L16">
-        <v>0.3473480491741583</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7216515886694381</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.64381712047728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5474417144134662</v>
+      </c>
+      <c r="P16">
+        <v>0.5988093034105937</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.751836156539241</v>
+        <v>3.569792742860045</v>
       </c>
       <c r="C17">
-        <v>0.5750204597592585</v>
+        <v>1.278746625624137</v>
       </c>
       <c r="D17">
-        <v>0.2603448823386856</v>
+        <v>0.296360227955077</v>
       </c>
       <c r="E17">
-        <v>0.05128036337781161</v>
+        <v>0.07970363201890862</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.452140005018606</v>
+        <v>1.251024865402144</v>
       </c>
       <c r="H17">
-        <v>0.3440045476899058</v>
+        <v>0.1286059251709162</v>
       </c>
       <c r="I17">
-        <v>0.2786504836357864</v>
+        <v>0.01627881139887055</v>
       </c>
       <c r="J17">
-        <v>0.06218510995776327</v>
+        <v>0.7117944612434428</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5079012783616008</v>
       </c>
       <c r="L17">
-        <v>0.336299979443794</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6922741009743234</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.627649656763111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6059569272915724</v>
+      </c>
+      <c r="P17">
+        <v>0.6060616758704356</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.658783152866022</v>
+        <v>3.523908802804215</v>
       </c>
       <c r="C18">
-        <v>0.5634586122918108</v>
+        <v>1.285272948732256</v>
       </c>
       <c r="D18">
-        <v>0.2575897316704925</v>
+        <v>0.288842806811104</v>
       </c>
       <c r="E18">
-        <v>0.05171208394131988</v>
+        <v>0.07439799656762691</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4481703684751892</v>
+        <v>1.350713202494319</v>
       </c>
       <c r="H18">
-        <v>0.3438917828371899</v>
+        <v>0.07593444756728474</v>
       </c>
       <c r="I18">
-        <v>0.2813996119620512</v>
+        <v>0.01558062223041734</v>
       </c>
       <c r="J18">
-        <v>0.06164913511589631</v>
+        <v>0.764333117318813</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.55760759984922</v>
       </c>
       <c r="L18">
-        <v>0.3299764412804791</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6754050965371974</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.618895016998806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7624227333026781</v>
+      </c>
+      <c r="P18">
+        <v>0.6093789658586761</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.627294501438485</v>
+        <v>3.54343356245198</v>
       </c>
       <c r="C19">
-        <v>0.5595454554488697</v>
+        <v>1.32895237641759</v>
       </c>
       <c r="D19">
-        <v>0.2566642010748694</v>
+        <v>0.2865724956805167</v>
       </c>
       <c r="E19">
-        <v>0.05185973741073457</v>
+        <v>0.1223239513513974</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4468541881519741</v>
+        <v>1.506596737350662</v>
       </c>
       <c r="H19">
-        <v>0.3438692400770691</v>
+        <v>0.03193782882504337</v>
       </c>
       <c r="I19">
-        <v>0.2823507434295998</v>
+        <v>0.01619769505862223</v>
       </c>
       <c r="J19">
-        <v>0.06146786655222414</v>
+        <v>0.8432854731885016</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6285563989793204</v>
       </c>
       <c r="L19">
-        <v>0.3278405909841808</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6696981523618462</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.616022489987046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.007977541436134</v>
+      </c>
+      <c r="P19">
+        <v>0.6185818446370426</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.769066749749925</v>
+        <v>3.766543186586318</v>
       </c>
       <c r="C20">
-        <v>0.5771610329370276</v>
+        <v>1.469681574365438</v>
       </c>
       <c r="D20">
-        <v>0.2608583057342315</v>
+        <v>0.2991333936798668</v>
       </c>
       <c r="E20">
-        <v>0.05120116775845496</v>
+        <v>0.3120290569089121</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4528880779635784</v>
+        <v>1.831710619167609</v>
       </c>
       <c r="H20">
-        <v>0.3440329100724995</v>
+        <v>0.0106019808116975</v>
       </c>
       <c r="I20">
-        <v>0.278151418136293</v>
+        <v>0.01995233547194442</v>
       </c>
       <c r="J20">
-        <v>0.06228440476727215</v>
+        <v>1.001984626857137</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7657270274541048</v>
       </c>
       <c r="L20">
-        <v>0.3374728222607217</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6953984177217549</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.629313914662589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.497965945010705</v>
+      </c>
+      <c r="P20">
+        <v>0.6404222377506699</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.246781202410773</v>
+        <v>4.262064877884825</v>
       </c>
       <c r="C21">
-        <v>0.6364683483342048</v>
+        <v>1.671038254066843</v>
       </c>
       <c r="D21">
-        <v>0.2754784854429602</v>
+        <v>0.339767292635841</v>
       </c>
       <c r="E21">
-        <v>0.04909330220056773</v>
+        <v>0.3721715598997832</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4751889611918756</v>
+        <v>2.070318078650189</v>
       </c>
       <c r="H21">
-        <v>0.3457104488324632</v>
+        <v>0.01588711509710572</v>
       </c>
       <c r="I21">
-        <v>0.2655071491357326</v>
+        <v>0.02775456347532579</v>
       </c>
       <c r="J21">
-        <v>0.06504283320626314</v>
+        <v>1.109462192324941</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8429090999318234</v>
       </c>
       <c r="L21">
-        <v>0.3702168314932237</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7821012251576676</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.680618663501889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.730075771570696</v>
+      </c>
+      <c r="P21">
+        <v>0.607141538842928</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.560222757657925</v>
+        <v>4.590873720564105</v>
       </c>
       <c r="C22">
-        <v>0.6753418381950382</v>
+        <v>1.797658650595793</v>
       </c>
       <c r="D22">
-        <v>0.2854515815370746</v>
+        <v>0.3667364305998717</v>
       </c>
       <c r="E22">
-        <v>0.04779609613756541</v>
+        <v>0.3999671190785676</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4913844568979613</v>
+        <v>2.221923630865177</v>
       </c>
       <c r="H22">
-        <v>0.3476960961323954</v>
+        <v>0.01966779627194382</v>
       </c>
       <c r="I22">
-        <v>0.2583977461593534</v>
+        <v>0.03321533869624549</v>
       </c>
       <c r="J22">
-        <v>0.06685781153465342</v>
+        <v>1.177600755405592</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8920600854238927</v>
       </c>
       <c r="L22">
-        <v>0.3919253946635024</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8390701988196128</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.719437548936071</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.860356616033954</v>
+      </c>
+      <c r="P22">
+        <v>0.584923153626935</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.392807443172842</v>
+        <v>4.422105668349275</v>
       </c>
       <c r="C23">
-        <v>0.6545825205336655</v>
+        <v>1.727376803169193</v>
       </c>
       <c r="D23">
-        <v>0.2800889133097115</v>
+        <v>0.3523132418175976</v>
       </c>
       <c r="E23">
-        <v>0.04848093212268978</v>
+        <v>0.385026079779891</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4825850672235106</v>
+        <v>2.146792228664054</v>
       </c>
       <c r="H23">
-        <v>0.3465516993738902</v>
+        <v>0.0176217462974475</v>
       </c>
       <c r="I23">
-        <v>0.2620823862658277</v>
+        <v>0.03004290613015126</v>
       </c>
       <c r="J23">
-        <v>0.06588793953928018</v>
+        <v>1.144123513787122</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8693184715275493</v>
       </c>
       <c r="L23">
-        <v>0.3803092712301606</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8086343117537922</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.698213086410959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.791298981097626</v>
+      </c>
+      <c r="P23">
+        <v>0.5978719438523221</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.761276595260597</v>
+        <v>3.775057758123637</v>
       </c>
       <c r="C24">
-        <v>0.5761932672409387</v>
+        <v>1.469001950881307</v>
       </c>
       <c r="D24">
-        <v>0.260626056180655</v>
+        <v>0.2985505722513153</v>
       </c>
       <c r="E24">
-        <v>0.05123694445624771</v>
+        <v>0.3294120302896104</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4525493650492791</v>
+        <v>1.857636173596745</v>
       </c>
       <c r="H24">
-        <v>0.3440197998794901</v>
+        <v>0.01078433476250237</v>
       </c>
       <c r="I24">
-        <v>0.2783766678986517</v>
+        <v>0.01964672257323397</v>
       </c>
       <c r="J24">
-        <v>0.06223951056562882</v>
+        <v>1.015080593946635</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7792623998270685</v>
       </c>
       <c r="L24">
-        <v>0.3369424927083315</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.693985850824852</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.628559825665718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.53064291977914</v>
+      </c>
+      <c r="P24">
+        <v>0.6463822072757743</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.084078711516497</v>
+        <v>3.082670142824497</v>
       </c>
       <c r="C25">
-        <v>0.4919814893111152</v>
+        <v>1.196520744728957</v>
       </c>
       <c r="D25">
-        <v>0.24127465656818</v>
+        <v>0.2421013587741498</v>
       </c>
       <c r="E25">
-        <v>0.05454058073674251</v>
+        <v>0.2708657528863654</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4264185374767493</v>
+        <v>1.555084292005887</v>
       </c>
       <c r="H25">
-        <v>0.3447981311610988</v>
+        <v>0.005139577949187513</v>
       </c>
       <c r="I25">
-        <v>0.3005132400671258</v>
+        <v>0.01086305291211254</v>
       </c>
       <c r="J25">
-        <v>0.05834994553443806</v>
+        <v>0.880734002982706</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6856358716837505</v>
       </c>
       <c r="L25">
-        <v>0.2913341129801381</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5713686090139447</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.574021892409206</v>
+        <v>1.252491577948433</v>
+      </c>
+      <c r="P25">
+        <v>0.7012606735117863</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.591844119531402</v>
+        <v>2.377499153497183</v>
       </c>
       <c r="C2">
-        <v>0.9937838630453371</v>
+        <v>1.067224295471533</v>
       </c>
       <c r="D2">
-        <v>0.2015576033234652</v>
+        <v>0.2011804420883863</v>
       </c>
       <c r="E2">
-        <v>0.2284432081920329</v>
+        <v>0.2296404278396196</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.352742314480309</v>
+        <v>1.140865937928737</v>
       </c>
       <c r="H2">
-        <v>0.002230342803465346</v>
+        <v>0.001970697726295878</v>
       </c>
       <c r="I2">
-        <v>0.005571268122437356</v>
+        <v>0.005057197779328781</v>
       </c>
       <c r="J2">
-        <v>0.7922797498123373</v>
+        <v>0.7511280879227229</v>
       </c>
       <c r="K2">
-        <v>0.627605829838636</v>
+        <v>0.5150495593753135</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2574325288083799</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1452249706321886</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.050703393246572</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7466815132820468</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.03316435546774</v>
+      </c>
+      <c r="R2">
+        <v>0.7114185171710017</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.250690138630318</v>
+        <v>2.074519371812471</v>
       </c>
       <c r="C3">
-        <v>0.8616538373537992</v>
+        <v>0.9224564966966113</v>
       </c>
       <c r="D3">
-        <v>0.1745429706860477</v>
+        <v>0.1743473204173966</v>
       </c>
       <c r="E3">
-        <v>0.200146283826296</v>
+        <v>0.2020347095489754</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.210168882712736</v>
+        <v>1.027902652419513</v>
       </c>
       <c r="H3">
-        <v>0.0008943187953336373</v>
+        <v>0.0007969127855325109</v>
       </c>
       <c r="I3">
-        <v>0.003108533547862002</v>
+        <v>0.003048660993832275</v>
       </c>
       <c r="J3">
-        <v>0.7297660079726995</v>
+        <v>0.6989754345514143</v>
       </c>
       <c r="K3">
-        <v>0.5844382767883403</v>
+        <v>0.4873529837955175</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2550630409429573</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1270714325928708</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9138776226539633</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7767770368632974</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.899831996638234</v>
+      </c>
+      <c r="R3">
+        <v>0.7413017046548891</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.041137387168135</v>
+        <v>1.887764763248782</v>
       </c>
       <c r="C4">
-        <v>0.7813148084612465</v>
+        <v>0.8344276969615407</v>
       </c>
       <c r="D4">
-        <v>0.1581464863759408</v>
+        <v>0.1580418485076933</v>
       </c>
       <c r="E4">
-        <v>0.1828993525968308</v>
+        <v>0.1851664476080011</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.123542726637439</v>
+        <v>0.9592255852160463</v>
       </c>
       <c r="H4">
-        <v>0.0003584318280205334</v>
+        <v>0.0003232086085622754</v>
       </c>
       <c r="I4">
-        <v>0.001978186985688968</v>
+        <v>0.002098925121124307</v>
       </c>
       <c r="J4">
-        <v>0.6919300822555527</v>
+        <v>0.6669390375527087</v>
       </c>
       <c r="K4">
-        <v>0.5582492580082601</v>
+        <v>0.4704186162021102</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2533864510145776</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1167345614697126</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8300663234859798</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7956732018117378</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8180610187985238</v>
+      </c>
+      <c r="R4">
+        <v>0.7601103843728581</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.954050652414452</v>
+        <v>1.809955319383135</v>
       </c>
       <c r="C5">
-        <v>0.7493615975609771</v>
+        <v>0.7993618999875594</v>
       </c>
       <c r="D5">
-        <v>0.1515050671794</v>
+        <v>0.1514333097833287</v>
       </c>
       <c r="E5">
-        <v>0.1759136942215598</v>
+        <v>0.1783261340191302</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.086960502049266</v>
+        <v>0.9300748613986087</v>
       </c>
       <c r="H5">
-        <v>0.0002060661572884648</v>
+        <v>0.000187676758967692</v>
       </c>
       <c r="I5">
-        <v>0.00166314170008075</v>
+        <v>0.001848077710393525</v>
       </c>
       <c r="J5">
-        <v>0.6758885212438486</v>
+        <v>0.6531908354034925</v>
       </c>
       <c r="K5">
-        <v>0.5467573737734455</v>
+        <v>0.4627707372385217</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2523100836288137</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1124844200116399</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7958176313457344</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8031205837856472</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7846278029851135</v>
+      </c>
+      <c r="R5">
+        <v>0.7676894739125331</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.937577558239468</v>
+        <v>1.795179949149798</v>
       </c>
       <c r="C6">
-        <v>0.7448183765085332</v>
+        <v>0.7943048801850523</v>
       </c>
       <c r="D6">
-        <v>0.1504026397807365</v>
+        <v>0.150336323836342</v>
       </c>
       <c r="E6">
-        <v>0.1747768620051104</v>
+        <v>0.1772140155032709</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.079089452194722</v>
+        <v>0.9236438229829105</v>
       </c>
       <c r="H6">
-        <v>0.0001840554652012827</v>
+        <v>0.0001680524176959075</v>
       </c>
       <c r="I6">
-        <v>0.001693045334964616</v>
+        <v>0.00190493404353731</v>
       </c>
       <c r="J6">
-        <v>0.6723201397469722</v>
+        <v>0.6500720662070449</v>
       </c>
       <c r="K6">
-        <v>0.543767679751717</v>
+        <v>0.4605751527843367</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.251717233539992</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1115015524129213</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7899733532304367</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8039347943712389</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7789265903627367</v>
+      </c>
+      <c r="R6">
+        <v>0.7687171894589198</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.034453140313133</v>
+        <v>1.879460078023925</v>
       </c>
       <c r="C7">
-        <v>0.7829449217939271</v>
+        <v>0.8341080915817827</v>
       </c>
       <c r="D7">
-        <v>0.1580510359159319</v>
+        <v>0.1579435954929522</v>
       </c>
       <c r="E7">
-        <v>0.1828644818032039</v>
+        <v>0.1852792169866575</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.118099094185681</v>
+        <v>0.9586931126349469</v>
       </c>
       <c r="H7">
-        <v>0.0003537765933672166</v>
+        <v>0.0003176977924004287</v>
       </c>
       <c r="I7">
-        <v>0.00216678369284562</v>
+        <v>0.002328766809850613</v>
       </c>
       <c r="J7">
-        <v>0.6892188298153883</v>
+        <v>0.6553355215503416</v>
       </c>
       <c r="K7">
-        <v>0.5551238755057284</v>
+        <v>0.4666213846577634</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2517609762272457</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1154957383114557</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8291675834131524</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7946157069303084</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8165719496864412</v>
+      </c>
+      <c r="R7">
+        <v>0.7593069224368754</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.466818867125539</v>
+        <v>2.259019504895605</v>
       </c>
       <c r="C8">
-        <v>0.9507960975972765</v>
+        <v>1.013436225633711</v>
       </c>
       <c r="D8">
-        <v>0.192190641021341</v>
+        <v>0.1918667864865142</v>
       </c>
       <c r="E8">
-        <v>0.2187330629618671</v>
+        <v>0.2206656492989296</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.296772817675389</v>
+        <v>1.110149289490778</v>
       </c>
       <c r="H8">
-        <v>0.00170103974695146</v>
+        <v>0.001496644438648387</v>
       </c>
       <c r="I8">
-        <v>0.004855765954292934</v>
+        <v>0.004552450347591552</v>
       </c>
       <c r="J8">
-        <v>0.7672832948653365</v>
+        <v>0.6999328042524979</v>
       </c>
       <c r="K8">
-        <v>0.6086983375654924</v>
+        <v>0.4982971140872863</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2537022273920471</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1363201349477237</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.002885336358851</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7554972870327443</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9845014527493134</v>
+      </c>
+      <c r="R8">
+        <v>0.7201108345300318</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.325584948531912</v>
+        <v>3.01562887992219</v>
       </c>
       <c r="C9">
-        <v>1.283827574439385</v>
+        <v>1.376334245974476</v>
       </c>
       <c r="D9">
-        <v>0.2609566194689421</v>
+        <v>0.2600197089087857</v>
       </c>
       <c r="E9">
-        <v>0.2903285956253825</v>
+        <v>0.2903451355442357</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.664987293856228</v>
+        <v>1.40640540791378</v>
       </c>
       <c r="H9">
-        <v>0.006850327500965037</v>
+        <v>0.005979027956888316</v>
       </c>
       <c r="I9">
-        <v>0.01325135633441832</v>
+        <v>0.01108539323489577</v>
       </c>
       <c r="J9">
-        <v>0.9299645690106786</v>
+        <v>0.8243477989264818</v>
       </c>
       <c r="K9">
-        <v>0.7221658115902159</v>
+        <v>0.5700378870761824</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2594587565576418</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1867614279200112</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.346691946477904</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6843233281788486</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.31819648976203</v>
+      </c>
+      <c r="R9">
+        <v>0.6490525700535568</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.948716869465443</v>
+        <v>3.54954787311766</v>
       </c>
       <c r="C10">
-        <v>1.528055004345788</v>
+        <v>1.629490247650381</v>
       </c>
       <c r="D10">
-        <v>0.3129421487613087</v>
+        <v>0.3113470722850025</v>
       </c>
       <c r="E10">
-        <v>0.3210267546610908</v>
+        <v>0.3197907067370664</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.914714735148777</v>
+        <v>1.632193799780396</v>
       </c>
       <c r="H10">
-        <v>0.01220919379606</v>
+        <v>0.01058223557109317</v>
       </c>
       <c r="I10">
-        <v>0.02189547826631788</v>
+        <v>0.01764682222502767</v>
       </c>
       <c r="J10">
-        <v>1.039486340803393</v>
+        <v>0.852666363332645</v>
       </c>
       <c r="K10">
-        <v>0.7948722519710429</v>
+        <v>0.6071026996085891</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.256725042715864</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2215839058768623</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.556503835198455</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6294708217119727</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.516845775125262</v>
+      </c>
+      <c r="R10">
+        <v>0.5975378529072175</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.155123004468521</v>
+        <v>3.7216088808824</v>
       </c>
       <c r="C11">
-        <v>1.573196300005861</v>
+        <v>1.646658547754384</v>
       </c>
       <c r="D11">
-        <v>0.3363534829620534</v>
+        <v>0.3344433216784353</v>
       </c>
       <c r="E11">
-        <v>0.1757466040062745</v>
+        <v>0.1715921877624886</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.798277552334213</v>
+        <v>1.587093233585932</v>
       </c>
       <c r="H11">
-        <v>0.02981341865911347</v>
+        <v>0.02809474029201908</v>
       </c>
       <c r="I11">
-        <v>0.02494067546831769</v>
+        <v>0.01999298914957581</v>
       </c>
       <c r="J11">
-        <v>0.9749342910366181</v>
+        <v>0.6958477550499822</v>
       </c>
       <c r="K11">
-        <v>0.7232325925918417</v>
+        <v>0.5359005535256784</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2245577856722036</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2020424945151191</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.279433060285783</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5748838365856308</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.236927727859296</v>
+      </c>
+      <c r="R11">
+        <v>0.5774857483723466</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.205745265656503</v>
+        <v>3.770117249027805</v>
       </c>
       <c r="C12">
-        <v>1.555612645871975</v>
+        <v>1.611075641626996</v>
       </c>
       <c r="D12">
-        <v>0.3450292534669899</v>
+        <v>0.3430274324102101</v>
       </c>
       <c r="E12">
-        <v>0.1040762237855564</v>
+        <v>0.09655396459075405</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.658321948227268</v>
+        <v>1.493009143852504</v>
       </c>
       <c r="H12">
-        <v>0.06723488119123999</v>
+        <v>0.06559380537754578</v>
       </c>
       <c r="I12">
-        <v>0.02532988399113112</v>
+        <v>0.02023097784871375</v>
       </c>
       <c r="J12">
-        <v>0.9024906132222554</v>
+        <v>0.5993509399021377</v>
       </c>
       <c r="K12">
-        <v>0.6544798644855092</v>
+        <v>0.4785964061094248</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2022633754618326</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1818193540836717</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.028116694596228</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5552086592306402</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9884434671093345</v>
+      </c>
+      <c r="R12">
+        <v>0.5856186059581105</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.129869089106819</v>
+        <v>3.724093206051862</v>
       </c>
       <c r="C13">
-        <v>1.49206747112737</v>
+        <v>1.540982205698811</v>
       </c>
       <c r="D13">
-        <v>0.3426634587250419</v>
+        <v>0.3407688087743992</v>
       </c>
       <c r="E13">
-        <v>0.08402092338345657</v>
+        <v>0.07346178780521884</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.48470509951963</v>
+        <v>1.33991026491293</v>
       </c>
       <c r="H13">
-        <v>0.1214077640867401</v>
+        <v>0.1199815995583293</v>
       </c>
       <c r="I13">
-        <v>0.02388041916054373</v>
+        <v>0.01919135502964409</v>
       </c>
       <c r="J13">
-        <v>0.8159580375857729</v>
+        <v>0.5495277046523483</v>
       </c>
       <c r="K13">
-        <v>0.5793810612177239</v>
+        <v>0.4262769892654887</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1847116806408948</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1595059212717587</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7833665113400201</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.55842413814349</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7512135161255955</v>
+      </c>
+      <c r="R13">
+        <v>0.6102567165741988</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.018207287377663</v>
+        <v>3.647422309296587</v>
       </c>
       <c r="C14">
-        <v>1.427937209248341</v>
+        <v>1.476954575484115</v>
       </c>
       <c r="D14">
-        <v>0.3360252001892263</v>
+        <v>0.3342898043821947</v>
       </c>
       <c r="E14">
-        <v>0.1005012362323932</v>
+        <v>0.08849976475882926</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.348425561869533</v>
+        <v>1.208379155384023</v>
       </c>
       <c r="H14">
-        <v>0.169594388923386</v>
+        <v>0.1683609167271101</v>
       </c>
       <c r="I14">
-        <v>0.02217068237139141</v>
+        <v>0.01800986869293375</v>
       </c>
       <c r="J14">
-        <v>0.7491635524169169</v>
+        <v>0.5315532989138916</v>
       </c>
       <c r="K14">
-        <v>0.5240274063482815</v>
+        <v>0.3911398587561195</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1740519824703348</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1429023231470588</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6202349948403238</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5723483426609128</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5946604921336416</v>
+      </c>
+      <c r="R14">
+        <v>0.6347102267418663</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.961989519105487</v>
+        <v>3.606084479301444</v>
       </c>
       <c r="C15">
-        <v>1.403527304984379</v>
+        <v>1.454463178345804</v>
       </c>
       <c r="D15">
-        <v>0.3320601992009102</v>
+        <v>0.3304029362058145</v>
       </c>
       <c r="E15">
-        <v>0.1079182820882636</v>
+        <v>0.09589153851864118</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.30630229746501</v>
+        <v>1.163926232898376</v>
       </c>
       <c r="H15">
-        <v>0.1816694669743839</v>
+        <v>0.1805136641128229</v>
       </c>
       <c r="I15">
-        <v>0.02145817260682747</v>
+        <v>0.01756059756029327</v>
       </c>
       <c r="J15">
-        <v>0.729044237574243</v>
+        <v>0.5334740240321452</v>
       </c>
       <c r="K15">
-        <v>0.5080775486829552</v>
+        <v>0.3822282055285768</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1718312699166802</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1379843100807996</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5789081820070763</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.578942850613096</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5555470591917242</v>
+      </c>
+      <c r="R15">
+        <v>0.642332313156281</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.706414049481566</v>
+        <v>3.40414806710487</v>
       </c>
       <c r="C16">
-        <v>1.313583454683112</v>
+        <v>1.379472949472984</v>
       </c>
       <c r="D16">
-        <v>0.3097999188643143</v>
+        <v>0.3084934125720622</v>
       </c>
       <c r="E16">
-        <v>0.09977609717739355</v>
+        <v>0.0901118266460248</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.234607099558104</v>
+        <v>1.064089986446277</v>
       </c>
       <c r="H16">
-        <v>0.1671572665853773</v>
+        <v>0.166307590204795</v>
       </c>
       <c r="I16">
-        <v>0.01797881035353033</v>
+        <v>0.0151085023030566</v>
       </c>
       <c r="J16">
-        <v>0.699426310247361</v>
+        <v>0.591471509039863</v>
       </c>
       <c r="K16">
-        <v>0.4916318578504075</v>
+        <v>0.3835212304313131</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1772585261500765</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.131417538384877</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5474417144134662</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5988093034105937</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5299098533852984</v>
+      </c>
+      <c r="R16">
+        <v>0.6494881416832641</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.569792742860045</v>
+        <v>3.286212052486633</v>
       </c>
       <c r="C17">
-        <v>1.278746625624137</v>
+        <v>1.353190655296885</v>
       </c>
       <c r="D17">
-        <v>0.296360227955077</v>
+        <v>0.2952200405087666</v>
       </c>
       <c r="E17">
-        <v>0.07970363201890862</v>
+        <v>0.07189060074270337</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.251024865402144</v>
+        <v>1.06130272891771</v>
       </c>
       <c r="H17">
-        <v>0.1286059251709162</v>
+        <v>0.12788152701782</v>
       </c>
       <c r="I17">
-        <v>0.01627881139887055</v>
+        <v>0.01388328977166342</v>
       </c>
       <c r="J17">
-        <v>0.7117944612434428</v>
+        <v>0.6383208110503347</v>
       </c>
       <c r="K17">
-        <v>0.5079012783616008</v>
+        <v>0.4020817311821503</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1870665863226399</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1344812949942131</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6059569272915724</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6060616758704356</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5895300166003565</v>
+      </c>
+      <c r="R17">
+        <v>0.6442498322217389</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.523908802804215</v>
+        <v>3.236578167798768</v>
       </c>
       <c r="C18">
-        <v>1.285272948732256</v>
+        <v>1.368257141897573</v>
       </c>
       <c r="D18">
-        <v>0.288842806811104</v>
+        <v>0.2877589683290154</v>
       </c>
       <c r="E18">
-        <v>0.07439799656762691</v>
+        <v>0.06835847533252215</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.350713202494319</v>
+        <v>1.136914355400108</v>
       </c>
       <c r="H18">
-        <v>0.07593444756728474</v>
+        <v>0.07520980605228544</v>
       </c>
       <c r="I18">
-        <v>0.01558062223041734</v>
+        <v>0.01326142656158602</v>
       </c>
       <c r="J18">
-        <v>0.764333117318813</v>
+        <v>0.6981916552903442</v>
       </c>
       <c r="K18">
-        <v>0.55760759984922</v>
+        <v>0.4425905665549337</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2037321902058764</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1478471002651425</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7624227333026781</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6093789658586761</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7440973074306427</v>
+      </c>
+      <c r="R18">
+        <v>0.6313830345757729</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.54343356245198</v>
+        <v>3.237830019713215</v>
       </c>
       <c r="C19">
-        <v>1.32895237641759</v>
+        <v>1.421716074381663</v>
       </c>
       <c r="D19">
-        <v>0.2865724956805167</v>
+        <v>0.2854623238150253</v>
       </c>
       <c r="E19">
-        <v>0.1223239513513974</v>
+        <v>0.1181441234224394</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.506596737350662</v>
+        <v>1.263150781058073</v>
       </c>
       <c r="H19">
-        <v>0.03193782882504337</v>
+        <v>0.0310914786816241</v>
       </c>
       <c r="I19">
-        <v>0.01619769505862223</v>
+        <v>0.01376151354891331</v>
       </c>
       <c r="J19">
-        <v>0.8432854731885016</v>
+        <v>0.7684133585828761</v>
       </c>
       <c r="K19">
-        <v>0.6285563989793204</v>
+        <v>0.4966593197299147</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2242497327362685</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.168083586065265</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.007977541436134</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6185818446370426</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9854876945835187</v>
+      </c>
+      <c r="R19">
+        <v>0.6211287498551723</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.766543186586318</v>
+        <v>3.401272206940519</v>
       </c>
       <c r="C20">
-        <v>1.469681574365438</v>
+        <v>1.575969825303332</v>
       </c>
       <c r="D20">
-        <v>0.2991333936798668</v>
+        <v>0.2977550659741155</v>
       </c>
       <c r="E20">
-        <v>0.3120290569089121</v>
+        <v>0.3106505737854164</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.831710619167609</v>
+        <v>1.541997199036871</v>
       </c>
       <c r="H20">
-        <v>0.0106019808116975</v>
+        <v>0.00922709387311027</v>
       </c>
       <c r="I20">
-        <v>0.01995233547194442</v>
+        <v>0.01655666869861694</v>
       </c>
       <c r="J20">
-        <v>1.001984626857137</v>
+        <v>0.8699061547654594</v>
       </c>
       <c r="K20">
-        <v>0.7657270274541048</v>
+        <v>0.5933446683127244</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2560240599433854</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2106324758673921</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.497965945010705</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6404222377506699</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.463766635097059</v>
+      </c>
+      <c r="R20">
+        <v>0.6102246334627039</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.262064877884825</v>
+        <v>3.777307242453958</v>
       </c>
       <c r="C21">
-        <v>1.671038254066843</v>
+        <v>1.747841404227984</v>
       </c>
       <c r="D21">
-        <v>0.339767292635841</v>
+        <v>0.3376576072911206</v>
       </c>
       <c r="E21">
-        <v>0.3721715598997832</v>
+        <v>0.373121540719815</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.070318078650189</v>
+        <v>1.839622332733484</v>
       </c>
       <c r="H21">
-        <v>0.01588711509710572</v>
+        <v>0.0136067620453989</v>
       </c>
       <c r="I21">
-        <v>0.02775456347532579</v>
+        <v>0.02204312664236419</v>
       </c>
       <c r="J21">
-        <v>1.109462192324941</v>
+        <v>0.7487807711615062</v>
       </c>
       <c r="K21">
-        <v>0.8429090999318234</v>
+        <v>0.6158744153890368</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2517399212845106</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2359429426651261</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.730075771570696</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.607141538842928</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.672903004019403</v>
+      </c>
+      <c r="R21">
+        <v>0.5717443090073902</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.590873720564105</v>
+        <v>4.023355019322878</v>
       </c>
       <c r="C22">
-        <v>1.797658650595793</v>
+        <v>1.850786038417766</v>
       </c>
       <c r="D22">
-        <v>0.3667364305998717</v>
+        <v>0.3640763478072273</v>
       </c>
       <c r="E22">
-        <v>0.3999671190785676</v>
+        <v>0.4025507841711331</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.221923630865177</v>
+        <v>2.041865409438429</v>
       </c>
       <c r="H22">
-        <v>0.01966779627194382</v>
+        <v>0.0167071851306303</v>
       </c>
       <c r="I22">
-        <v>0.03321533869624549</v>
+        <v>0.02567942870518358</v>
       </c>
       <c r="J22">
-        <v>1.177600755405592</v>
+        <v>0.6643526726439291</v>
       </c>
       <c r="K22">
-        <v>0.8920600854238927</v>
+        <v>0.6277582762367544</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2479227725162545</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.251847744916148</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.860356616033954</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.584923153626935</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.786987719560273</v>
+      </c>
+      <c r="R22">
+        <v>0.5475237138913123</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.422105668349275</v>
+        <v>3.904348703298922</v>
       </c>
       <c r="C23">
-        <v>1.727376803169193</v>
+        <v>1.79857142585098</v>
       </c>
       <c r="D23">
-        <v>0.3523132418175976</v>
+        <v>0.3499685781756625</v>
       </c>
       <c r="E23">
-        <v>0.385026079779891</v>
+        <v>0.3862937605936523</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.146792228664054</v>
+        <v>1.926438461783562</v>
       </c>
       <c r="H23">
-        <v>0.0176217462974475</v>
+        <v>0.01505006134402109</v>
       </c>
       <c r="I23">
-        <v>0.03004290613015126</v>
+        <v>0.02346731607604191</v>
       </c>
       <c r="J23">
-        <v>1.144123513787122</v>
+        <v>0.7313162295883444</v>
       </c>
       <c r="K23">
-        <v>0.8693184715275493</v>
+        <v>0.6272336664629634</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2519681144458943</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2457127505067049</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.791298981097626</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5978719438523221</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.728361693409724</v>
+      </c>
+      <c r="R23">
+        <v>0.5607474595442623</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.775057758123637</v>
+        <v>3.407605173042782</v>
       </c>
       <c r="C24">
-        <v>1.469001950881307</v>
+        <v>1.576477415292061</v>
       </c>
       <c r="D24">
-        <v>0.2985505722513153</v>
+        <v>0.2971705887079708</v>
       </c>
       <c r="E24">
-        <v>0.3294120302896104</v>
+        <v>0.3282481308763607</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.857636173596745</v>
+        <v>1.562988564132212</v>
       </c>
       <c r="H24">
-        <v>0.01078433476250237</v>
+        <v>0.00938389763492925</v>
       </c>
       <c r="I24">
-        <v>0.01964672257323397</v>
+        <v>0.01612268248824034</v>
       </c>
       <c r="J24">
-        <v>1.015080593946635</v>
+        <v>0.8826559813398944</v>
       </c>
       <c r="K24">
-        <v>0.7792623998270685</v>
+        <v>0.6041780930738696</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2601570365859516</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2146633525132131</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.53064291977914</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6463822072757743</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.495948000806649</v>
+      </c>
+      <c r="R24">
+        <v>0.6123002141087818</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.082670142824497</v>
+        <v>2.805230989898689</v>
       </c>
       <c r="C25">
-        <v>1.196520744728957</v>
+        <v>1.283749150514211</v>
       </c>
       <c r="D25">
-        <v>0.2421013587741498</v>
+        <v>0.2413673142679755</v>
       </c>
       <c r="E25">
-        <v>0.2708657528863654</v>
+        <v>0.2712609680744293</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.555084292005887</v>
+        <v>1.31119298440214</v>
       </c>
       <c r="H25">
-        <v>0.005139577949187513</v>
+        <v>0.004501138526612047</v>
       </c>
       <c r="I25">
-        <v>0.01086305291211254</v>
+        <v>0.009427388816687809</v>
       </c>
       <c r="J25">
-        <v>0.880734002982706</v>
+        <v>0.7995366677125446</v>
       </c>
       <c r="K25">
-        <v>0.6856358716837505</v>
+        <v>0.5476297254180906</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2569877267103493</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1712963706478092</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.252491577948433</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7012606735117863</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.227833451902271</v>
+      </c>
+      <c r="R25">
+        <v>0.6673334879866379</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
